--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-85965.67066495141</v>
+        <v>-81801.83440818655</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20853793.03302597</v>
+        <v>20897608.45082173</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>435605.9436375159</v>
+        <v>409549.9132594715</v>
       </c>
     </row>
     <row r="11">
@@ -23033,49 +23035,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.1422978921927</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>293.3189543461853</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>28.63495548576847</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
-        <v>16.40254192821721</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>16.25486629370368</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>14.10849161526705</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>10.50014909015127</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>9.912735448118685</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>11.54918363067664</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>15.52000409925878</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>19.56201948156689</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>25.39827700991628</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
-        <v>99.82861357029707</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.04492102372</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7590903980116</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -23112,49 +23114,49 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G9" t="n">
-        <v>93.03117179652894</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H9" t="n">
-        <v>52.04978355868677</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I9" t="n">
-        <v>13.34699725816536</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>12.85802961440214</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>9.147977155514765</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>4.697136804258392</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>2.304073385794617</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>3.647188605845983</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>6.10054723088008</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.27186175772305</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>18.57786033090706</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
-        <v>78.98673432768035</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T9" t="n">
-        <v>140.1303678175283</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U9" t="n">
-        <v>182.9151152861358</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V9" t="n">
         <v>202.9234074721264</v>
@@ -23191,49 +23193,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5256017598331</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>141.7466268305473</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>96.70193160180501</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
-        <v>15.772719788292</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>12.97154881044711</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L10" t="n">
-        <v>11.69033660355724</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M10" t="n">
-        <v>11.79100166068977</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N10" t="n">
-        <v>10.22089258152801</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O10" t="n">
-        <v>12.77486773896165</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P10" t="n">
-        <v>14.05996517561621</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q10" t="n">
-        <v>18.85864757926836</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R10" t="n">
-        <v>43.47480773473441</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>167.2347311597167</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.611998142066</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3788513829418</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -23270,49 +23272,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.0867433522511</v>
+        <v>400.0825884389156</v>
       </c>
       <c r="H11" t="n">
-        <v>292.750006414009</v>
+        <v>292.7074549078116</v>
       </c>
       <c r="I11" t="n">
-        <v>26.49318908467228</v>
+        <v>26.33300678830426</v>
       </c>
       <c r="J11" t="n">
-        <v>11.687419793854</v>
+        <v>11.33477671814256</v>
       </c>
       <c r="K11" t="n">
-        <v>9.188120483615116</v>
+        <v>8.659599926410685</v>
       </c>
       <c r="L11" t="n">
-        <v>5.341568553442613</v>
+        <v>4.685892067245952</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7452579786414901</v>
+        <v>0.01569155241409703</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>2.188868639101635</v>
+        <v>1.488812484839848</v>
       </c>
       <c r="P11" t="n">
-        <v>7.531191812490523</v>
+        <v>6.933710081199635</v>
       </c>
       <c r="Q11" t="n">
-        <v>13.562754156455</v>
+        <v>13.11407025899279</v>
       </c>
       <c r="R11" t="n">
-        <v>21.90854914031357</v>
+        <v>21.64755306550058</v>
       </c>
       <c r="S11" t="n">
-        <v>98.56266449137924</v>
+        <v>98.46798440374585</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8017310251259</v>
+        <v>217.7835428919996</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7546460348163</v>
+        <v>255.7543136417494</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23349,19 +23351,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>93.00144749716304</v>
+        <v>92.99922442254206</v>
       </c>
       <c r="H12" t="n">
-        <v>51.76270940428461</v>
+        <v>51.74123918360299</v>
       </c>
       <c r="I12" t="n">
-        <v>12.32359484578712</v>
+        <v>12.24705477659964</v>
       </c>
       <c r="J12" t="n">
-        <v>10.04973517299579</v>
+        <v>9.839703372948977</v>
       </c>
       <c r="K12" t="n">
-        <v>4.348154656593753</v>
+        <v>3.989176856940833</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.424509749335602</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.477581017613943</v>
+        <v>8.19380749231045</v>
       </c>
       <c r="R12" t="n">
-        <v>16.73234637554063</v>
+        <v>16.59432074249376</v>
       </c>
       <c r="S12" t="n">
-        <v>78.43461850393234</v>
+        <v>78.39332586788025</v>
       </c>
       <c r="T12" t="n">
-        <v>140.0105580319263</v>
+        <v>140.0015974811513</v>
       </c>
       <c r="U12" t="n">
-        <v>182.9131597401249</v>
+        <v>182.9130134852156</v>
       </c>
       <c r="V12" t="n">
         <v>202.9234074721264</v>
@@ -23428,49 +23430,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5006819057487</v>
+        <v>164.4988181546643</v>
       </c>
       <c r="H13" t="n">
-        <v>141.5250666733238</v>
+        <v>141.5084962318651</v>
       </c>
       <c r="I13" t="n">
-        <v>95.95252362624773</v>
+        <v>95.89647554818475</v>
       </c>
       <c r="J13" t="n">
-        <v>14.01088610452265</v>
+        <v>13.87911890286131</v>
       </c>
       <c r="K13" t="n">
-        <v>10.07631485409216</v>
+        <v>9.859780864477683</v>
       </c>
       <c r="L13" t="n">
-        <v>7.985433933586291</v>
+        <v>7.708344976923126</v>
       </c>
       <c r="M13" t="n">
-        <v>7.884701260890999</v>
+        <v>7.592549806828204</v>
       </c>
       <c r="N13" t="n">
-        <v>6.40747527422576</v>
+        <v>6.122270528749972</v>
       </c>
       <c r="O13" t="n">
-        <v>9.252559636191176</v>
+        <v>8.989126892018565</v>
       </c>
       <c r="P13" t="n">
-        <v>11.04602209616816</v>
+        <v>10.82060987411565</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.77194961588923</v>
+        <v>16.61588587736505</v>
       </c>
       <c r="R13" t="n">
-        <v>42.35432047744712</v>
+        <v>42.27051945141948</v>
       </c>
       <c r="S13" t="n">
-        <v>166.8004460662635</v>
+        <v>166.7679659678213</v>
       </c>
       <c r="T13" t="n">
-        <v>240.5055224018871</v>
+        <v>240.4975591017995</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3774921181736</v>
+        <v>277.3773904590235</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -23507,49 +23509,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.0867433522511</v>
+        <v>400.0825884389156</v>
       </c>
       <c r="H14" t="n">
-        <v>292.750006414009</v>
+        <v>292.7074549078116</v>
       </c>
       <c r="I14" t="n">
-        <v>26.49318908467228</v>
+        <v>26.33300678830426</v>
       </c>
       <c r="J14" t="n">
-        <v>11.687419793854</v>
+        <v>11.33477671814256</v>
       </c>
       <c r="K14" t="n">
-        <v>9.188120483615116</v>
+        <v>8.659599926410685</v>
       </c>
       <c r="L14" t="n">
-        <v>5.341568553442613</v>
+        <v>4.685892067245952</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7452579786414901</v>
+        <v>0.01569155241409703</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>2.188868639101635</v>
+        <v>1.488812484839848</v>
       </c>
       <c r="P14" t="n">
-        <v>7.531191812490523</v>
+        <v>6.933710081199635</v>
       </c>
       <c r="Q14" t="n">
-        <v>13.562754156455</v>
+        <v>13.11407025899279</v>
       </c>
       <c r="R14" t="n">
-        <v>21.90854914031357</v>
+        <v>21.64755306550058</v>
       </c>
       <c r="S14" t="n">
-        <v>98.56266449137924</v>
+        <v>98.46798440374585</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8017310251259</v>
+        <v>217.7835428919996</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7546460348163</v>
+        <v>255.7543136417494</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -23586,19 +23588,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>93.00144749716304</v>
+        <v>92.99922442254206</v>
       </c>
       <c r="H15" t="n">
-        <v>51.76270940428461</v>
+        <v>51.74123918360299</v>
       </c>
       <c r="I15" t="n">
-        <v>12.32359484578712</v>
+        <v>12.24705477659964</v>
       </c>
       <c r="J15" t="n">
-        <v>10.04973517299579</v>
+        <v>9.839703372948977</v>
       </c>
       <c r="K15" t="n">
-        <v>4.348154656593753</v>
+        <v>3.989176856940833</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23613,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.424509749335602</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.477581017613943</v>
+        <v>8.19380749231045</v>
       </c>
       <c r="R15" t="n">
-        <v>16.73234637554063</v>
+        <v>16.59432074249376</v>
       </c>
       <c r="S15" t="n">
-        <v>78.43461850393234</v>
+        <v>78.39332586788025</v>
       </c>
       <c r="T15" t="n">
-        <v>140.0105580319263</v>
+        <v>140.0015974811513</v>
       </c>
       <c r="U15" t="n">
-        <v>182.9131597401249</v>
+        <v>182.9130134852156</v>
       </c>
       <c r="V15" t="n">
         <v>202.9234074721264</v>
@@ -23665,49 +23667,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5006819057487</v>
+        <v>164.4988181546643</v>
       </c>
       <c r="H16" t="n">
-        <v>141.5250666733238</v>
+        <v>141.5084962318651</v>
       </c>
       <c r="I16" t="n">
-        <v>95.95252362624773</v>
+        <v>95.89647554818475</v>
       </c>
       <c r="J16" t="n">
-        <v>14.01088610452265</v>
+        <v>13.87911890286131</v>
       </c>
       <c r="K16" t="n">
-        <v>10.07631485409216</v>
+        <v>9.859780864477683</v>
       </c>
       <c r="L16" t="n">
-        <v>7.985433933586291</v>
+        <v>7.708344976923126</v>
       </c>
       <c r="M16" t="n">
-        <v>7.884701260890999</v>
+        <v>7.592549806828204</v>
       </c>
       <c r="N16" t="n">
-        <v>6.40747527422576</v>
+        <v>6.122270528749972</v>
       </c>
       <c r="O16" t="n">
-        <v>9.252559636191176</v>
+        <v>8.989126892018565</v>
       </c>
       <c r="P16" t="n">
-        <v>11.04602209616816</v>
+        <v>10.82060987411565</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.77194961588923</v>
+        <v>16.61588587736505</v>
       </c>
       <c r="R16" t="n">
-        <v>42.35432047744712</v>
+        <v>42.27051945141948</v>
       </c>
       <c r="S16" t="n">
-        <v>166.8004460662635</v>
+        <v>166.7679659678213</v>
       </c>
       <c r="T16" t="n">
-        <v>240.5055224018871</v>
+        <v>240.4975591017995</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3774921181736</v>
+        <v>277.3773904590235</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -23744,49 +23746,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.0867433522511</v>
+        <v>400.0825884389156</v>
       </c>
       <c r="H17" t="n">
-        <v>292.750006414009</v>
+        <v>292.7074549078116</v>
       </c>
       <c r="I17" t="n">
-        <v>26.49318908467228</v>
+        <v>26.33300678830426</v>
       </c>
       <c r="J17" t="n">
-        <v>11.687419793854</v>
+        <v>11.33477671814256</v>
       </c>
       <c r="K17" t="n">
-        <v>9.188120483615116</v>
+        <v>8.659599926410685</v>
       </c>
       <c r="L17" t="n">
-        <v>5.341568553442613</v>
+        <v>4.685892067245952</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7452579786414901</v>
+        <v>0.01569155241409703</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2.188868639101635</v>
+        <v>1.488812484839848</v>
       </c>
       <c r="P17" t="n">
-        <v>7.531191812490523</v>
+        <v>6.933710081199632</v>
       </c>
       <c r="Q17" t="n">
-        <v>13.562754156455</v>
+        <v>13.11407025899278</v>
       </c>
       <c r="R17" t="n">
-        <v>21.90854914031357</v>
+        <v>21.64755306550058</v>
       </c>
       <c r="S17" t="n">
-        <v>98.56266449137924</v>
+        <v>98.46798440374585</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8017310251259</v>
+        <v>217.7835428919996</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7546460348163</v>
+        <v>255.7543136417494</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -23823,19 +23825,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>93.00144749716304</v>
+        <v>92.99922442254206</v>
       </c>
       <c r="H18" t="n">
-        <v>51.76270940428461</v>
+        <v>51.74123918360299</v>
       </c>
       <c r="I18" t="n">
-        <v>12.32359484578712</v>
+        <v>12.24705477659964</v>
       </c>
       <c r="J18" t="n">
-        <v>10.04973517299579</v>
+        <v>9.839703372948977</v>
       </c>
       <c r="K18" t="n">
-        <v>4.348154656593753</v>
+        <v>3.989176856940833</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23850,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.424509749335602</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.477581017613943</v>
+        <v>8.19380749231045</v>
       </c>
       <c r="R18" t="n">
-        <v>16.73234637554063</v>
+        <v>16.59432074249376</v>
       </c>
       <c r="S18" t="n">
-        <v>78.43461850393234</v>
+        <v>78.39332586788025</v>
       </c>
       <c r="T18" t="n">
-        <v>140.0105580319263</v>
+        <v>140.0015974811513</v>
       </c>
       <c r="U18" t="n">
-        <v>182.9131597401249</v>
+        <v>182.9130134852156</v>
       </c>
       <c r="V18" t="n">
         <v>202.9234074721264</v>
@@ -23902,49 +23904,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5006819057487</v>
+        <v>164.4988181546643</v>
       </c>
       <c r="H19" t="n">
-        <v>141.5250666733238</v>
+        <v>141.5084962318651</v>
       </c>
       <c r="I19" t="n">
-        <v>95.95252362624773</v>
+        <v>95.89647554818475</v>
       </c>
       <c r="J19" t="n">
-        <v>14.01088610452265</v>
+        <v>13.87911890286131</v>
       </c>
       <c r="K19" t="n">
-        <v>10.07631485409216</v>
+        <v>9.859780864477683</v>
       </c>
       <c r="L19" t="n">
-        <v>7.985433933586291</v>
+        <v>7.708344976923126</v>
       </c>
       <c r="M19" t="n">
-        <v>7.884701260890999</v>
+        <v>7.592549806828204</v>
       </c>
       <c r="N19" t="n">
-        <v>6.40747527422576</v>
+        <v>6.12227052874997</v>
       </c>
       <c r="O19" t="n">
-        <v>9.252559636191176</v>
+        <v>8.989126892018565</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04602209616816</v>
+        <v>10.82060987411565</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.77194961588923</v>
+        <v>16.61588587736505</v>
       </c>
       <c r="R19" t="n">
-        <v>42.35432047744712</v>
+        <v>42.27051945141948</v>
       </c>
       <c r="S19" t="n">
-        <v>166.8004460662635</v>
+        <v>166.7679659678213</v>
       </c>
       <c r="T19" t="n">
-        <v>240.5055224018871</v>
+        <v>240.4975591017995</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3774921181736</v>
+        <v>277.3773904590235</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -23981,49 +23983,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.0867433522511</v>
+        <v>400.0825884389156</v>
       </c>
       <c r="H20" t="n">
-        <v>292.750006414009</v>
+        <v>292.7074549078116</v>
       </c>
       <c r="I20" t="n">
-        <v>26.49318908467228</v>
+        <v>26.33300678830426</v>
       </c>
       <c r="J20" t="n">
-        <v>11.687419793854</v>
+        <v>11.33477671814256</v>
       </c>
       <c r="K20" t="n">
-        <v>9.188120483615116</v>
+        <v>8.659599926410685</v>
       </c>
       <c r="L20" t="n">
-        <v>5.341568553442613</v>
+        <v>4.685892067245952</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7452579786414901</v>
+        <v>0.01569155241409703</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2.188868639101635</v>
+        <v>1.488812484839848</v>
       </c>
       <c r="P20" t="n">
-        <v>7.531191812490523</v>
+        <v>6.933710081199632</v>
       </c>
       <c r="Q20" t="n">
-        <v>13.562754156455</v>
+        <v>13.11407025899278</v>
       </c>
       <c r="R20" t="n">
-        <v>21.90854914031357</v>
+        <v>21.64755306550058</v>
       </c>
       <c r="S20" t="n">
-        <v>98.56266449137924</v>
+        <v>98.46798440374585</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8017310251259</v>
+        <v>217.7835428919996</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7546460348163</v>
+        <v>255.7543136417494</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -24060,19 +24062,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>93.00144749716304</v>
+        <v>92.99922442254206</v>
       </c>
       <c r="H21" t="n">
-        <v>51.76270940428461</v>
+        <v>51.74123918360299</v>
       </c>
       <c r="I21" t="n">
-        <v>12.32359484578712</v>
+        <v>12.24705477659964</v>
       </c>
       <c r="J21" t="n">
-        <v>10.04973517299579</v>
+        <v>9.839703372948977</v>
       </c>
       <c r="K21" t="n">
-        <v>4.348154656593753</v>
+        <v>3.989176856940833</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24087,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.424509749335602</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.477581017613943</v>
+        <v>8.19380749231045</v>
       </c>
       <c r="R21" t="n">
-        <v>16.73234637554063</v>
+        <v>16.59432074249376</v>
       </c>
       <c r="S21" t="n">
-        <v>78.43461850393234</v>
+        <v>78.39332586788025</v>
       </c>
       <c r="T21" t="n">
-        <v>140.0105580319263</v>
+        <v>140.0015974811513</v>
       </c>
       <c r="U21" t="n">
-        <v>182.9131597401249</v>
+        <v>182.9130134852156</v>
       </c>
       <c r="V21" t="n">
         <v>202.9234074721264</v>
@@ -24139,49 +24141,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5006819057487</v>
+        <v>164.4988181546643</v>
       </c>
       <c r="H22" t="n">
-        <v>141.5250666733238</v>
+        <v>141.5084962318651</v>
       </c>
       <c r="I22" t="n">
-        <v>95.95252362624773</v>
+        <v>95.89647554818475</v>
       </c>
       <c r="J22" t="n">
-        <v>14.01088610452265</v>
+        <v>13.87911890286131</v>
       </c>
       <c r="K22" t="n">
-        <v>10.07631485409216</v>
+        <v>9.859780864477683</v>
       </c>
       <c r="L22" t="n">
-        <v>7.985433933586291</v>
+        <v>7.708344976923126</v>
       </c>
       <c r="M22" t="n">
-        <v>7.884701260890999</v>
+        <v>7.592549806828204</v>
       </c>
       <c r="N22" t="n">
-        <v>6.40747527422576</v>
+        <v>6.12227052874997</v>
       </c>
       <c r="O22" t="n">
-        <v>9.252559636191176</v>
+        <v>8.989126892018565</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04602209616816</v>
+        <v>10.82060987411565</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.77194961588923</v>
+        <v>16.61588587736505</v>
       </c>
       <c r="R22" t="n">
-        <v>42.35432047744712</v>
+        <v>42.27051945141948</v>
       </c>
       <c r="S22" t="n">
-        <v>166.8004460662635</v>
+        <v>166.7679659678213</v>
       </c>
       <c r="T22" t="n">
-        <v>240.5055224018871</v>
+        <v>240.4975591017995</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3774921181736</v>
+        <v>277.3773904590235</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -24218,49 +24220,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>400.0867433522511</v>
+        <v>400.0825884389156</v>
       </c>
       <c r="H23" t="n">
-        <v>292.750006414009</v>
+        <v>292.7074549078116</v>
       </c>
       <c r="I23" t="n">
-        <v>26.49318908467228</v>
+        <v>26.33300678830426</v>
       </c>
       <c r="J23" t="n">
-        <v>11.687419793854</v>
+        <v>11.33477671814256</v>
       </c>
       <c r="K23" t="n">
-        <v>9.188120483615116</v>
+        <v>8.659599926410685</v>
       </c>
       <c r="L23" t="n">
-        <v>5.341568553442613</v>
+        <v>4.685892067245952</v>
       </c>
       <c r="M23" t="n">
-        <v>0.7452579786414901</v>
+        <v>0.01569155241409703</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.188868639101635</v>
+        <v>1.488812484839848</v>
       </c>
       <c r="P23" t="n">
-        <v>7.531191812490523</v>
+        <v>6.933710081199632</v>
       </c>
       <c r="Q23" t="n">
-        <v>13.562754156455</v>
+        <v>13.11407025899278</v>
       </c>
       <c r="R23" t="n">
-        <v>21.90854914031357</v>
+        <v>21.64755306550058</v>
       </c>
       <c r="S23" t="n">
-        <v>98.56266449137924</v>
+        <v>98.46798440374585</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8017310251259</v>
+        <v>217.7835428919996</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7546460348163</v>
+        <v>255.7543136417494</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -24297,19 +24299,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>93.00144749716304</v>
+        <v>92.99922442254206</v>
       </c>
       <c r="H24" t="n">
-        <v>51.76270940428461</v>
+        <v>51.74123918360299</v>
       </c>
       <c r="I24" t="n">
-        <v>12.32359484578712</v>
+        <v>12.24705477659964</v>
       </c>
       <c r="J24" t="n">
-        <v>10.04973517299579</v>
+        <v>9.839703372948977</v>
       </c>
       <c r="K24" t="n">
-        <v>4.348154656593753</v>
+        <v>3.989176856940833</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24324,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.424509749335602</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.477581017613943</v>
+        <v>8.19380749231045</v>
       </c>
       <c r="R24" t="n">
-        <v>16.73234637554063</v>
+        <v>16.59432074249376</v>
       </c>
       <c r="S24" t="n">
-        <v>78.43461850393234</v>
+        <v>78.39332586788025</v>
       </c>
       <c r="T24" t="n">
-        <v>140.0105580319263</v>
+        <v>140.0015974811513</v>
       </c>
       <c r="U24" t="n">
-        <v>182.9131597401249</v>
+        <v>182.9130134852156</v>
       </c>
       <c r="V24" t="n">
         <v>202.9234074721264</v>
@@ -24376,49 +24378,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5006819057487</v>
+        <v>164.4988181546643</v>
       </c>
       <c r="H25" t="n">
-        <v>141.5250666733238</v>
+        <v>141.5084962318651</v>
       </c>
       <c r="I25" t="n">
-        <v>95.95252362624773</v>
+        <v>95.89647554818475</v>
       </c>
       <c r="J25" t="n">
-        <v>14.01088610452265</v>
+        <v>13.87911890286131</v>
       </c>
       <c r="K25" t="n">
-        <v>10.07631485409216</v>
+        <v>9.859780864477683</v>
       </c>
       <c r="L25" t="n">
-        <v>7.985433933586291</v>
+        <v>7.708344976923126</v>
       </c>
       <c r="M25" t="n">
-        <v>7.884701260890999</v>
+        <v>7.592549806828204</v>
       </c>
       <c r="N25" t="n">
-        <v>6.40747527422576</v>
+        <v>6.12227052874997</v>
       </c>
       <c r="O25" t="n">
-        <v>9.252559636191176</v>
+        <v>8.989126892018565</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04602209616816</v>
+        <v>10.82060987411565</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.77194961588923</v>
+        <v>16.61588587736505</v>
       </c>
       <c r="R25" t="n">
-        <v>42.35432047744712</v>
+        <v>42.27051945141948</v>
       </c>
       <c r="S25" t="n">
-        <v>166.8004460662635</v>
+        <v>166.7679659678213</v>
       </c>
       <c r="T25" t="n">
-        <v>240.5055224018871</v>
+        <v>240.4975591017995</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3774921181736</v>
+        <v>277.3773904590235</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -24455,49 +24457,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.0867433522511</v>
+        <v>400.0825884389156</v>
       </c>
       <c r="H26" t="n">
-        <v>292.750006414009</v>
+        <v>292.7074549078116</v>
       </c>
       <c r="I26" t="n">
-        <v>26.49318908467228</v>
+        <v>26.33300678830426</v>
       </c>
       <c r="J26" t="n">
-        <v>11.687419793854</v>
+        <v>11.33477671814256</v>
       </c>
       <c r="K26" t="n">
-        <v>9.188120483615116</v>
+        <v>8.659599926410685</v>
       </c>
       <c r="L26" t="n">
-        <v>5.341568553442613</v>
+        <v>4.685892067245952</v>
       </c>
       <c r="M26" t="n">
-        <v>0.7452579786414901</v>
+        <v>0.01569155241409703</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>2.188868639101635</v>
+        <v>1.488812484839848</v>
       </c>
       <c r="P26" t="n">
-        <v>7.531191812490523</v>
+        <v>6.933710081199632</v>
       </c>
       <c r="Q26" t="n">
-        <v>13.562754156455</v>
+        <v>13.11407025899278</v>
       </c>
       <c r="R26" t="n">
-        <v>21.90854914031357</v>
+        <v>21.64755306550058</v>
       </c>
       <c r="S26" t="n">
-        <v>98.56266449137924</v>
+        <v>98.46798440374585</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8017310251259</v>
+        <v>217.7835428919996</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7546460348163</v>
+        <v>255.7543136417494</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -24534,19 +24536,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>93.00144749716304</v>
+        <v>92.99922442254206</v>
       </c>
       <c r="H27" t="n">
-        <v>51.76270940428461</v>
+        <v>51.74123918360299</v>
       </c>
       <c r="I27" t="n">
-        <v>12.32359484578712</v>
+        <v>12.24705477659964</v>
       </c>
       <c r="J27" t="n">
-        <v>10.04973517299579</v>
+        <v>9.839703372948977</v>
       </c>
       <c r="K27" t="n">
-        <v>4.348154656593753</v>
+        <v>3.989176856940833</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24561,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.424509749335602</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>8.477581017613943</v>
+        <v>8.19380749231045</v>
       </c>
       <c r="R27" t="n">
-        <v>16.73234637554063</v>
+        <v>16.59432074249376</v>
       </c>
       <c r="S27" t="n">
-        <v>78.43461850393234</v>
+        <v>78.39332586788025</v>
       </c>
       <c r="T27" t="n">
-        <v>140.0105580319263</v>
+        <v>140.0015974811513</v>
       </c>
       <c r="U27" t="n">
-        <v>182.9131597401249</v>
+        <v>182.9130134852156</v>
       </c>
       <c r="V27" t="n">
         <v>202.9234074721264</v>
@@ -24613,49 +24615,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5006819057487</v>
+        <v>164.4988181546643</v>
       </c>
       <c r="H28" t="n">
-        <v>141.5250666733238</v>
+        <v>141.5084962318651</v>
       </c>
       <c r="I28" t="n">
-        <v>95.95252362624773</v>
+        <v>95.89647554818475</v>
       </c>
       <c r="J28" t="n">
-        <v>14.01088610452265</v>
+        <v>13.87911890286131</v>
       </c>
       <c r="K28" t="n">
-        <v>10.07631485409216</v>
+        <v>9.859780864477683</v>
       </c>
       <c r="L28" t="n">
-        <v>7.985433933586291</v>
+        <v>7.708344976923126</v>
       </c>
       <c r="M28" t="n">
-        <v>7.884701260890999</v>
+        <v>7.592549806828204</v>
       </c>
       <c r="N28" t="n">
-        <v>6.40747527422576</v>
+        <v>6.12227052874997</v>
       </c>
       <c r="O28" t="n">
-        <v>9.252559636191176</v>
+        <v>8.989126892018565</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04602209616816</v>
+        <v>10.82060987411565</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.77194961588923</v>
+        <v>16.61588587736505</v>
       </c>
       <c r="R28" t="n">
-        <v>42.35432047744712</v>
+        <v>42.27051945141948</v>
       </c>
       <c r="S28" t="n">
-        <v>166.8004460662635</v>
+        <v>166.7679659678213</v>
       </c>
       <c r="T28" t="n">
-        <v>240.5055224018871</v>
+        <v>240.4975591017995</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3774921181736</v>
+        <v>277.3773904590235</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -24692,49 +24694,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>400.0867433522511</v>
+        <v>400.0825884389156</v>
       </c>
       <c r="H29" t="n">
-        <v>292.750006414009</v>
+        <v>292.7074549078116</v>
       </c>
       <c r="I29" t="n">
-        <v>26.49318908467228</v>
+        <v>26.33300678830426</v>
       </c>
       <c r="J29" t="n">
-        <v>11.687419793854</v>
+        <v>11.33477671814256</v>
       </c>
       <c r="K29" t="n">
-        <v>9.188120483615116</v>
+        <v>8.659599926410685</v>
       </c>
       <c r="L29" t="n">
-        <v>5.341568553442613</v>
+        <v>4.685892067245952</v>
       </c>
       <c r="M29" t="n">
-        <v>0.7452579786414901</v>
+        <v>0.01569155241409703</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2.188868639101635</v>
+        <v>1.488812484839848</v>
       </c>
       <c r="P29" t="n">
-        <v>7.531191812490523</v>
+        <v>6.933710081199635</v>
       </c>
       <c r="Q29" t="n">
-        <v>13.562754156455</v>
+        <v>13.11407025899279</v>
       </c>
       <c r="R29" t="n">
-        <v>21.90854914031357</v>
+        <v>21.64755306550058</v>
       </c>
       <c r="S29" t="n">
-        <v>98.56266449137924</v>
+        <v>98.46798440374585</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8017310251259</v>
+        <v>217.7835428919996</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7546460348163</v>
+        <v>255.7543136417494</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24771,19 +24773,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>93.00144749716304</v>
+        <v>92.99922442254206</v>
       </c>
       <c r="H30" t="n">
-        <v>51.76270940428461</v>
+        <v>51.74123918360299</v>
       </c>
       <c r="I30" t="n">
-        <v>12.32359484578712</v>
+        <v>12.24705477659964</v>
       </c>
       <c r="J30" t="n">
-        <v>10.04973517299579</v>
+        <v>9.839703372948977</v>
       </c>
       <c r="K30" t="n">
-        <v>4.348154656593753</v>
+        <v>3.989176856940833</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24798,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.424509749335602</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>8.477581017613943</v>
+        <v>8.19380749231045</v>
       </c>
       <c r="R30" t="n">
-        <v>16.73234637554063</v>
+        <v>16.59432074249376</v>
       </c>
       <c r="S30" t="n">
-        <v>78.43461850393234</v>
+        <v>78.39332586788025</v>
       </c>
       <c r="T30" t="n">
-        <v>140.0105580319263</v>
+        <v>140.0015974811513</v>
       </c>
       <c r="U30" t="n">
-        <v>182.9131597401249</v>
+        <v>182.9130134852156</v>
       </c>
       <c r="V30" t="n">
         <v>202.9234074721264</v>
@@ -24850,49 +24852,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5006819057487</v>
+        <v>164.4988181546643</v>
       </c>
       <c r="H31" t="n">
-        <v>141.5250666733238</v>
+        <v>141.5084962318651</v>
       </c>
       <c r="I31" t="n">
-        <v>95.95252362624773</v>
+        <v>95.89647554818475</v>
       </c>
       <c r="J31" t="n">
-        <v>14.01088610452265</v>
+        <v>13.87911890286131</v>
       </c>
       <c r="K31" t="n">
-        <v>10.07631485409216</v>
+        <v>9.859780864477683</v>
       </c>
       <c r="L31" t="n">
-        <v>7.985433933586291</v>
+        <v>7.708344976923126</v>
       </c>
       <c r="M31" t="n">
-        <v>7.884701260890999</v>
+        <v>7.592549806828204</v>
       </c>
       <c r="N31" t="n">
-        <v>6.40747527422576</v>
+        <v>6.122270528749972</v>
       </c>
       <c r="O31" t="n">
-        <v>9.252559636191176</v>
+        <v>8.989126892018565</v>
       </c>
       <c r="P31" t="n">
-        <v>11.04602209616816</v>
+        <v>10.82060987411565</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.77194961588923</v>
+        <v>16.61588587736505</v>
       </c>
       <c r="R31" t="n">
-        <v>42.35432047744712</v>
+        <v>42.27051945141948</v>
       </c>
       <c r="S31" t="n">
-        <v>166.8004460662635</v>
+        <v>166.7679659678213</v>
       </c>
       <c r="T31" t="n">
-        <v>240.5055224018871</v>
+        <v>240.4975591017995</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3774921181736</v>
+        <v>277.3773904590235</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -24929,49 +24931,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>400.0867433522511</v>
+        <v>400.0825884389156</v>
       </c>
       <c r="H32" t="n">
-        <v>292.750006414009</v>
+        <v>292.7074549078116</v>
       </c>
       <c r="I32" t="n">
-        <v>26.49318908467228</v>
+        <v>26.33300678830426</v>
       </c>
       <c r="J32" t="n">
-        <v>11.687419793854</v>
+        <v>11.33477671814256</v>
       </c>
       <c r="K32" t="n">
-        <v>9.188120483615116</v>
+        <v>8.659599926410685</v>
       </c>
       <c r="L32" t="n">
-        <v>5.341568553442613</v>
+        <v>4.685892067245952</v>
       </c>
       <c r="M32" t="n">
-        <v>0.7452579786414901</v>
+        <v>0.01569155241409703</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>2.188868639101635</v>
+        <v>1.488812484839848</v>
       </c>
       <c r="P32" t="n">
-        <v>7.531191812490523</v>
+        <v>6.933710081199632</v>
       </c>
       <c r="Q32" t="n">
-        <v>13.562754156455</v>
+        <v>13.11407025899278</v>
       </c>
       <c r="R32" t="n">
-        <v>21.90854914031357</v>
+        <v>21.64755306550058</v>
       </c>
       <c r="S32" t="n">
-        <v>98.56266449137924</v>
+        <v>98.46798440374585</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8017310251259</v>
+        <v>217.7835428919996</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7546460348163</v>
+        <v>255.7543136417494</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -25008,19 +25010,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>93.00144749716304</v>
+        <v>92.99922442254206</v>
       </c>
       <c r="H33" t="n">
-        <v>51.76270940428461</v>
+        <v>51.74123918360299</v>
       </c>
       <c r="I33" t="n">
-        <v>12.32359484578712</v>
+        <v>12.24705477659964</v>
       </c>
       <c r="J33" t="n">
-        <v>10.04973517299579</v>
+        <v>9.839703372948977</v>
       </c>
       <c r="K33" t="n">
-        <v>4.348154656593753</v>
+        <v>3.989176856940833</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25035,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.424509749335602</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>8.477581017613943</v>
+        <v>8.19380749231045</v>
       </c>
       <c r="R33" t="n">
-        <v>16.73234637554063</v>
+        <v>16.59432074249376</v>
       </c>
       <c r="S33" t="n">
-        <v>78.43461850393234</v>
+        <v>78.39332586788025</v>
       </c>
       <c r="T33" t="n">
-        <v>140.0105580319263</v>
+        <v>140.0015974811513</v>
       </c>
       <c r="U33" t="n">
-        <v>182.9131597401249</v>
+        <v>182.9130134852156</v>
       </c>
       <c r="V33" t="n">
         <v>202.9234074721264</v>
@@ -25087,49 +25089,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5006819057487</v>
+        <v>164.4988181546643</v>
       </c>
       <c r="H34" t="n">
-        <v>141.5250666733238</v>
+        <v>141.5084962318651</v>
       </c>
       <c r="I34" t="n">
-        <v>95.95252362624773</v>
+        <v>95.89647554818475</v>
       </c>
       <c r="J34" t="n">
-        <v>14.01088610452265</v>
+        <v>13.87911890286131</v>
       </c>
       <c r="K34" t="n">
-        <v>10.07631485409216</v>
+        <v>9.859780864477683</v>
       </c>
       <c r="L34" t="n">
-        <v>7.985433933586291</v>
+        <v>7.708344976923126</v>
       </c>
       <c r="M34" t="n">
-        <v>7.884701260890999</v>
+        <v>7.592549806828204</v>
       </c>
       <c r="N34" t="n">
-        <v>6.40747527422576</v>
+        <v>6.12227052874997</v>
       </c>
       <c r="O34" t="n">
-        <v>9.252559636191176</v>
+        <v>8.989126892018565</v>
       </c>
       <c r="P34" t="n">
-        <v>11.04602209616816</v>
+        <v>10.82060987411565</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.77194961588923</v>
+        <v>16.61588587736505</v>
       </c>
       <c r="R34" t="n">
-        <v>42.35432047744712</v>
+        <v>42.27051945141948</v>
       </c>
       <c r="S34" t="n">
-        <v>166.8004460662635</v>
+        <v>166.7679659678213</v>
       </c>
       <c r="T34" t="n">
-        <v>240.5055224018871</v>
+        <v>240.4975591017995</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3774921181736</v>
+        <v>277.3773904590235</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -25166,49 +25168,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.0867433522511</v>
+        <v>400.0825884389156</v>
       </c>
       <c r="H35" t="n">
-        <v>292.750006414009</v>
+        <v>292.7074549078116</v>
       </c>
       <c r="I35" t="n">
-        <v>26.49318908467228</v>
+        <v>26.33300678830426</v>
       </c>
       <c r="J35" t="n">
-        <v>11.687419793854</v>
+        <v>11.33477671814256</v>
       </c>
       <c r="K35" t="n">
-        <v>9.188120483615116</v>
+        <v>8.659599926410685</v>
       </c>
       <c r="L35" t="n">
-        <v>5.341568553442613</v>
+        <v>4.685892067245952</v>
       </c>
       <c r="M35" t="n">
-        <v>0.7452579786414901</v>
+        <v>0.01569155241409703</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>2.188868639101635</v>
+        <v>1.488812484839848</v>
       </c>
       <c r="P35" t="n">
-        <v>7.531191812490523</v>
+        <v>6.933710081199632</v>
       </c>
       <c r="Q35" t="n">
-        <v>13.562754156455</v>
+        <v>13.11407025899278</v>
       </c>
       <c r="R35" t="n">
-        <v>21.90854914031357</v>
+        <v>21.64755306550058</v>
       </c>
       <c r="S35" t="n">
-        <v>98.56266449137924</v>
+        <v>98.46798440374585</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8017310251259</v>
+        <v>217.7835428919996</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7546460348163</v>
+        <v>255.7543136417494</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -25245,19 +25247,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>93.00144749716304</v>
+        <v>92.99922442254206</v>
       </c>
       <c r="H36" t="n">
-        <v>51.76270940428461</v>
+        <v>51.74123918360299</v>
       </c>
       <c r="I36" t="n">
-        <v>12.32359484578712</v>
+        <v>12.24705477659964</v>
       </c>
       <c r="J36" t="n">
-        <v>10.04973517299579</v>
+        <v>9.839703372948977</v>
       </c>
       <c r="K36" t="n">
-        <v>4.348154656593753</v>
+        <v>3.989176856940833</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25272,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0.424509749335602</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>8.477581017613943</v>
+        <v>8.19380749231045</v>
       </c>
       <c r="R36" t="n">
-        <v>16.73234637554063</v>
+        <v>16.59432074249376</v>
       </c>
       <c r="S36" t="n">
-        <v>78.43461850393234</v>
+        <v>78.39332586788025</v>
       </c>
       <c r="T36" t="n">
-        <v>140.0105580319263</v>
+        <v>140.0015974811513</v>
       </c>
       <c r="U36" t="n">
-        <v>182.9131597401249</v>
+        <v>182.9130134852156</v>
       </c>
       <c r="V36" t="n">
         <v>202.9234074721264</v>
@@ -25324,49 +25326,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5006819057487</v>
+        <v>164.4988181546643</v>
       </c>
       <c r="H37" t="n">
-        <v>141.5250666733238</v>
+        <v>141.5084962318651</v>
       </c>
       <c r="I37" t="n">
-        <v>95.95252362624773</v>
+        <v>95.89647554818475</v>
       </c>
       <c r="J37" t="n">
-        <v>14.01088610452265</v>
+        <v>13.87911890286131</v>
       </c>
       <c r="K37" t="n">
-        <v>10.07631485409216</v>
+        <v>9.859780864477683</v>
       </c>
       <c r="L37" t="n">
-        <v>7.985433933586291</v>
+        <v>7.708344976923126</v>
       </c>
       <c r="M37" t="n">
-        <v>7.884701260890999</v>
+        <v>7.592549806828204</v>
       </c>
       <c r="N37" t="n">
-        <v>6.40747527422576</v>
+        <v>6.12227052874997</v>
       </c>
       <c r="O37" t="n">
-        <v>9.252559636191176</v>
+        <v>8.989126892018565</v>
       </c>
       <c r="P37" t="n">
-        <v>11.04602209616816</v>
+        <v>10.82060987411565</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.77194961588923</v>
+        <v>16.61588587736505</v>
       </c>
       <c r="R37" t="n">
-        <v>42.35432047744712</v>
+        <v>42.27051945141948</v>
       </c>
       <c r="S37" t="n">
-        <v>166.8004460662635</v>
+        <v>166.7679659678213</v>
       </c>
       <c r="T37" t="n">
-        <v>240.5055224018871</v>
+        <v>240.4975591017995</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3774921181736</v>
+        <v>277.3773904590235</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -25403,49 +25405,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.0867433522511</v>
+        <v>400.0825884389156</v>
       </c>
       <c r="H38" t="n">
-        <v>292.750006414009</v>
+        <v>292.7074549078116</v>
       </c>
       <c r="I38" t="n">
-        <v>26.49318908467228</v>
+        <v>26.33300678830426</v>
       </c>
       <c r="J38" t="n">
-        <v>11.687419793854</v>
+        <v>11.33477671814256</v>
       </c>
       <c r="K38" t="n">
-        <v>9.188120483615116</v>
+        <v>8.659599926410685</v>
       </c>
       <c r="L38" t="n">
-        <v>5.341568553442613</v>
+        <v>4.685892067245952</v>
       </c>
       <c r="M38" t="n">
-        <v>0.7452579786414901</v>
+        <v>0.01569155241409703</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>2.188868639101635</v>
+        <v>1.488812484839848</v>
       </c>
       <c r="P38" t="n">
-        <v>7.531191812490523</v>
+        <v>6.933710081199632</v>
       </c>
       <c r="Q38" t="n">
-        <v>13.562754156455</v>
+        <v>13.11407025899278</v>
       </c>
       <c r="R38" t="n">
-        <v>21.90854914031357</v>
+        <v>21.64755306550058</v>
       </c>
       <c r="S38" t="n">
-        <v>98.56266449137924</v>
+        <v>98.46798440374585</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8017310251259</v>
+        <v>217.7835428919996</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7546460348163</v>
+        <v>255.7543136417494</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -25482,19 +25484,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>93.00144749716304</v>
+        <v>92.99922442254206</v>
       </c>
       <c r="H39" t="n">
-        <v>51.76270940428461</v>
+        <v>51.74123918360299</v>
       </c>
       <c r="I39" t="n">
-        <v>12.32359484578712</v>
+        <v>12.24705477659964</v>
       </c>
       <c r="J39" t="n">
-        <v>10.04973517299579</v>
+        <v>9.839703372948977</v>
       </c>
       <c r="K39" t="n">
-        <v>4.348154656593753</v>
+        <v>3.989176856940833</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25509,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0.424509749335602</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>8.477581017613943</v>
+        <v>8.19380749231045</v>
       </c>
       <c r="R39" t="n">
-        <v>16.73234637554063</v>
+        <v>16.59432074249376</v>
       </c>
       <c r="S39" t="n">
-        <v>78.43461850393234</v>
+        <v>78.39332586788025</v>
       </c>
       <c r="T39" t="n">
-        <v>140.0105580319263</v>
+        <v>140.0015974811513</v>
       </c>
       <c r="U39" t="n">
-        <v>182.9131597401249</v>
+        <v>182.9130134852156</v>
       </c>
       <c r="V39" t="n">
         <v>202.9234074721264</v>
@@ -25561,49 +25563,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5006819057487</v>
+        <v>164.4988181546643</v>
       </c>
       <c r="H40" t="n">
-        <v>141.5250666733238</v>
+        <v>141.5084962318651</v>
       </c>
       <c r="I40" t="n">
-        <v>95.95252362624773</v>
+        <v>95.89647554818475</v>
       </c>
       <c r="J40" t="n">
-        <v>14.01088610452265</v>
+        <v>13.87911890286131</v>
       </c>
       <c r="K40" t="n">
-        <v>10.07631485409216</v>
+        <v>9.859780864477683</v>
       </c>
       <c r="L40" t="n">
-        <v>7.985433933586291</v>
+        <v>7.708344976923126</v>
       </c>
       <c r="M40" t="n">
-        <v>7.884701260890999</v>
+        <v>7.592549806828204</v>
       </c>
       <c r="N40" t="n">
-        <v>6.40747527422576</v>
+        <v>6.12227052874997</v>
       </c>
       <c r="O40" t="n">
-        <v>9.252559636191176</v>
+        <v>8.989126892018565</v>
       </c>
       <c r="P40" t="n">
-        <v>11.04602209616816</v>
+        <v>10.82060987411565</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.77194961588923</v>
+        <v>16.61588587736505</v>
       </c>
       <c r="R40" t="n">
-        <v>42.35432047744712</v>
+        <v>42.27051945141948</v>
       </c>
       <c r="S40" t="n">
-        <v>166.8004460662635</v>
+        <v>166.7679659678213</v>
       </c>
       <c r="T40" t="n">
-        <v>240.5055224018871</v>
+        <v>240.4975591017995</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3774921181736</v>
+        <v>277.3773904590235</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -25640,49 +25642,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.0867433522511</v>
+        <v>400.0825884389156</v>
       </c>
       <c r="H41" t="n">
-        <v>292.750006414009</v>
+        <v>292.7074549078116</v>
       </c>
       <c r="I41" t="n">
-        <v>26.49318908467228</v>
+        <v>26.33300678830426</v>
       </c>
       <c r="J41" t="n">
-        <v>11.687419793854</v>
+        <v>11.33477671814256</v>
       </c>
       <c r="K41" t="n">
-        <v>9.188120483615119</v>
+        <v>8.659599926410685</v>
       </c>
       <c r="L41" t="n">
-        <v>5.341568553442613</v>
+        <v>4.685892067245952</v>
       </c>
       <c r="M41" t="n">
-        <v>0.7452579786414901</v>
+        <v>0.01569155241409703</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>2.188868639101635</v>
+        <v>1.488812484839848</v>
       </c>
       <c r="P41" t="n">
-        <v>7.531191812490526</v>
+        <v>6.933710081199632</v>
       </c>
       <c r="Q41" t="n">
-        <v>13.562754156455</v>
+        <v>13.11407025899278</v>
       </c>
       <c r="R41" t="n">
-        <v>21.90854914031357</v>
+        <v>21.64755306550058</v>
       </c>
       <c r="S41" t="n">
-        <v>98.56266449137924</v>
+        <v>98.46798440374585</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8017310251259</v>
+        <v>217.7835428919996</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7546460348163</v>
+        <v>255.7543136417494</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25719,19 +25721,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>93.00144749716304</v>
+        <v>92.99922442254206</v>
       </c>
       <c r="H42" t="n">
-        <v>51.76270940428461</v>
+        <v>51.74123918360299</v>
       </c>
       <c r="I42" t="n">
-        <v>12.32359484578712</v>
+        <v>12.24705477659964</v>
       </c>
       <c r="J42" t="n">
-        <v>10.04973517299579</v>
+        <v>9.839703372948977</v>
       </c>
       <c r="K42" t="n">
-        <v>4.348154656593753</v>
+        <v>3.989176856940833</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0.424509749335602</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>8.477581017613941</v>
+        <v>8.19380749231045</v>
       </c>
       <c r="R42" t="n">
-        <v>16.73234637554063</v>
+        <v>16.59432074249376</v>
       </c>
       <c r="S42" t="n">
-        <v>78.43461850393234</v>
+        <v>78.39332586788025</v>
       </c>
       <c r="T42" t="n">
-        <v>140.0105580319263</v>
+        <v>140.0015974811513</v>
       </c>
       <c r="U42" t="n">
-        <v>182.9131597401249</v>
+        <v>182.9130134852156</v>
       </c>
       <c r="V42" t="n">
         <v>202.9234074721264</v>
@@ -25798,49 +25800,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5006819057487</v>
+        <v>164.4988181546643</v>
       </c>
       <c r="H43" t="n">
-        <v>141.5250666733238</v>
+        <v>141.5084962318651</v>
       </c>
       <c r="I43" t="n">
-        <v>95.95252362624773</v>
+        <v>95.89647554818475</v>
       </c>
       <c r="J43" t="n">
-        <v>14.01088610452265</v>
+        <v>13.87911890286131</v>
       </c>
       <c r="K43" t="n">
-        <v>10.07631485409217</v>
+        <v>9.859780864477683</v>
       </c>
       <c r="L43" t="n">
-        <v>7.985433933586291</v>
+        <v>7.708344976923126</v>
       </c>
       <c r="M43" t="n">
-        <v>7.884701260890999</v>
+        <v>7.592549806828204</v>
       </c>
       <c r="N43" t="n">
-        <v>6.40747527422576</v>
+        <v>6.12227052874997</v>
       </c>
       <c r="O43" t="n">
-        <v>9.252559636191176</v>
+        <v>8.989126892018565</v>
       </c>
       <c r="P43" t="n">
-        <v>11.04602209616816</v>
+        <v>10.82060987411565</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.77194961588923</v>
+        <v>16.61588587736505</v>
       </c>
       <c r="R43" t="n">
-        <v>42.35432047744712</v>
+        <v>42.27051945141948</v>
       </c>
       <c r="S43" t="n">
-        <v>166.8004460662635</v>
+        <v>166.7679659678213</v>
       </c>
       <c r="T43" t="n">
-        <v>240.5055224018871</v>
+        <v>240.4975591017995</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3774921181736</v>
+        <v>277.3773904590235</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -25877,49 +25879,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.0867433522511</v>
+        <v>400.0824990748248</v>
       </c>
       <c r="H44" t="n">
-        <v>292.750006414009</v>
+        <v>292.7065397078163</v>
       </c>
       <c r="I44" t="n">
-        <v>26.49318908467228</v>
+        <v>26.3295615791925</v>
       </c>
       <c r="J44" t="n">
-        <v>11.687419793854</v>
+        <v>11.3271920526384</v>
       </c>
       <c r="K44" t="n">
-        <v>9.188120483615116</v>
+        <v>8.648232478941665</v>
       </c>
       <c r="L44" t="n">
-        <v>5.341568553442613</v>
+        <v>4.671789743482165</v>
       </c>
       <c r="M44" t="n">
-        <v>0.7452579786414901</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>2.188868639101635</v>
+        <v>1.473755640880874</v>
       </c>
       <c r="P44" t="n">
-        <v>7.531191812490523</v>
+        <v>6.920859413233046</v>
       </c>
       <c r="Q44" t="n">
-        <v>13.562754156455</v>
+        <v>13.10441994252908</v>
       </c>
       <c r="R44" t="n">
-        <v>21.90854914031357</v>
+        <v>21.64193954842993</v>
       </c>
       <c r="S44" t="n">
-        <v>98.56266449137924</v>
+        <v>98.46594801952604</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8017310251259</v>
+        <v>217.783151700692</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7546460348163</v>
+        <v>255.7543064926221</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25956,19 +25958,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>93.00144749716304</v>
+        <v>92.99917660853818</v>
       </c>
       <c r="H45" t="n">
-        <v>51.76270940428461</v>
+        <v>51.74077740098654</v>
       </c>
       <c r="I45" t="n">
-        <v>12.32359484578712</v>
+        <v>12.24540854883441</v>
       </c>
       <c r="J45" t="n">
-        <v>10.04973517299579</v>
+        <v>9.835185998134863</v>
       </c>
       <c r="K45" t="n">
-        <v>4.348154656593753</v>
+        <v>3.981455943866639</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0.424509749335602</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>8.477581017613943</v>
+        <v>8.187704076657049</v>
       </c>
       <c r="R45" t="n">
-        <v>16.73234637554063</v>
+        <v>16.59135208004222</v>
       </c>
       <c r="S45" t="n">
-        <v>78.43461850393234</v>
+        <v>78.3924377437292</v>
       </c>
       <c r="T45" t="n">
-        <v>140.0105580319263</v>
+        <v>140.001404757162</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9131597401249</v>
+        <v>182.9130103395574</v>
       </c>
       <c r="V45" t="n">
         <v>202.9234074721264</v>
@@ -26035,49 +26037,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5006819057487</v>
+        <v>164.4987780690097</v>
       </c>
       <c r="H46" t="n">
-        <v>141.5250666733238</v>
+        <v>141.5081398339535</v>
       </c>
       <c r="I46" t="n">
-        <v>95.95252362624773</v>
+        <v>95.89527006322407</v>
       </c>
       <c r="J46" t="n">
-        <v>14.01088610452265</v>
+        <v>13.87628484707558</v>
       </c>
       <c r="K46" t="n">
-        <v>10.07631485409216</v>
+        <v>9.855123640234183</v>
       </c>
       <c r="L46" t="n">
-        <v>7.985433933586291</v>
+        <v>7.702385333317634</v>
       </c>
       <c r="M46" t="n">
-        <v>7.884701260890999</v>
+        <v>7.586266198249906</v>
       </c>
       <c r="N46" t="n">
-        <v>6.40747527422576</v>
+        <v>6.11613633033911</v>
       </c>
       <c r="O46" t="n">
-        <v>9.252559636191176</v>
+        <v>8.983460966937351</v>
       </c>
       <c r="P46" t="n">
-        <v>11.04602209616816</v>
+        <v>10.81576169638987</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.77194961588923</v>
+        <v>16.61252925040833</v>
       </c>
       <c r="R46" t="n">
-        <v>42.35432047744712</v>
+        <v>42.26871705461914</v>
       </c>
       <c r="S46" t="n">
-        <v>166.8004460662635</v>
+        <v>166.7672673841848</v>
       </c>
       <c r="T46" t="n">
-        <v>240.5055224018871</v>
+        <v>240.4973878267295</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3774921181736</v>
+        <v>277.3773882725333</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34965.281489956</v>
+        <v>6.548361852765083e-12</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46476.57741213311</v>
+        <v>47198.33473802202</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46476.57741213311</v>
+        <v>47198.33473802202</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>46476.57741213311</v>
+        <v>47198.33473802202</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>46476.57741213311</v>
+        <v>47198.33473802202</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>46476.57741213311</v>
+        <v>47198.33473802202</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>46476.57741213311</v>
+        <v>47198.33473802202</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>46476.57741213311</v>
+        <v>47198.33473802202</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>46476.57741213311</v>
+        <v>47198.33473802202</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>46476.57741213311</v>
+        <v>47198.33473802202</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>46476.57741213311</v>
+        <v>47198.33473802202</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>46476.57741213311</v>
+        <v>47198.33473802202</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>46476.57741213311</v>
+        <v>47213.27763988465</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>5827.546914992667</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7746.096235355521</v>
+        <v>7866.389123003671</v>
       </c>
       <c r="F2" t="n">
-        <v>7746.096235355521</v>
+        <v>7866.389123003671</v>
       </c>
       <c r="G2" t="n">
-        <v>7746.096235355521</v>
+        <v>7866.389123003671</v>
       </c>
       <c r="H2" t="n">
-        <v>7746.096235355521</v>
+        <v>7866.38912300367</v>
       </c>
       <c r="I2" t="n">
-        <v>7746.096235355521</v>
+        <v>7866.38912300367</v>
       </c>
       <c r="J2" t="n">
-        <v>7746.096235355521</v>
+        <v>7866.38912300367</v>
       </c>
       <c r="K2" t="n">
-        <v>7746.096235355521</v>
+        <v>7866.389123003671</v>
       </c>
       <c r="L2" t="n">
-        <v>7746.096235355521</v>
+        <v>7866.389123003671</v>
       </c>
       <c r="M2" t="n">
-        <v>7746.096235355521</v>
+        <v>7866.389123003671</v>
       </c>
       <c r="N2" t="n">
-        <v>7746.096235355521</v>
+        <v>7866.389123003671</v>
       </c>
       <c r="O2" t="n">
-        <v>7746.096235355521</v>
+        <v>7866.389123003672</v>
       </c>
       <c r="P2" t="n">
-        <v>7746.096235355521</v>
+        <v>7868.879606647444</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>32673.69813039072</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>11102.38015809728</v>
+        <v>42583.96041313781</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>14.79530028705073</v>
       </c>
     </row>
     <row r="4">
@@ -26473,43 +26475,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34459.30828506134</v>
+        <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1132.966666529316</v>
+        <v>1155.497722819562</v>
       </c>
       <c r="F5" t="n">
-        <v>1132.966666529316</v>
+        <v>1155.497722819562</v>
       </c>
       <c r="G5" t="n">
-        <v>1132.966666529316</v>
+        <v>1155.497722819562</v>
       </c>
       <c r="H5" t="n">
-        <v>1132.966666529316</v>
+        <v>1155.497722819562</v>
       </c>
       <c r="I5" t="n">
-        <v>1132.966666529316</v>
+        <v>1155.497722819562</v>
       </c>
       <c r="J5" t="n">
-        <v>1132.966666529316</v>
+        <v>1155.497722819562</v>
       </c>
       <c r="K5" t="n">
-        <v>1132.966666529316</v>
+        <v>1155.497722819562</v>
       </c>
       <c r="L5" t="n">
-        <v>1132.966666529316</v>
+        <v>1155.497722819562</v>
       </c>
       <c r="M5" t="n">
-        <v>1132.966666529316</v>
+        <v>1155.497722819562</v>
       </c>
       <c r="N5" t="n">
-        <v>1132.966666529316</v>
+        <v>1155.497722819562</v>
       </c>
       <c r="O5" t="n">
-        <v>1132.966666529316</v>
+        <v>1155.497722819562</v>
       </c>
       <c r="P5" t="n">
-        <v>1132.966666529316</v>
+        <v>1155.982321943114</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26527,43 @@
         <v>-33627.6</v>
       </c>
       <c r="D6" t="n">
-        <v>-61305.45950045939</v>
+        <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-4489.250589271076</v>
+        <v>-35873.0690129537</v>
       </c>
       <c r="F6" t="n">
-        <v>6613.129568826205</v>
+        <v>6710.891400184109</v>
       </c>
       <c r="G6" t="n">
-        <v>6613.129568826205</v>
+        <v>6710.891400184109</v>
       </c>
       <c r="H6" t="n">
-        <v>6613.129568826205</v>
+        <v>6710.891400184108</v>
       </c>
       <c r="I6" t="n">
-        <v>6613.129568826205</v>
+        <v>6710.891400184108</v>
       </c>
       <c r="J6" t="n">
-        <v>6613.129568826205</v>
+        <v>6710.891400184108</v>
       </c>
       <c r="K6" t="n">
-        <v>6613.129568826205</v>
+        <v>6710.891400184109</v>
       </c>
       <c r="L6" t="n">
-        <v>6613.129568826205</v>
+        <v>6710.891400184109</v>
       </c>
       <c r="M6" t="n">
-        <v>6613.129568826205</v>
+        <v>6710.891400184109</v>
       </c>
       <c r="N6" t="n">
-        <v>6613.129568826205</v>
+        <v>6710.891400184109</v>
       </c>
       <c r="O6" t="n">
-        <v>6613.129568826205</v>
+        <v>6710.891400184109</v>
       </c>
       <c r="P6" t="n">
-        <v>6613.129568826205</v>
+        <v>6698.101984417279</v>
       </c>
     </row>
   </sheetData>
@@ -26741,43 +26743,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>38.15175619547406</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>51.97094800593192</v>
+        <v>53.00448269814503</v>
       </c>
       <c r="F3" t="n">
-        <v>51.97094800593192</v>
+        <v>53.00448269814503</v>
       </c>
       <c r="G3" t="n">
-        <v>51.97094800593192</v>
+        <v>53.00448269814503</v>
       </c>
       <c r="H3" t="n">
-        <v>51.97094800593192</v>
+        <v>53.00448269814503</v>
       </c>
       <c r="I3" t="n">
-        <v>51.97094800593192</v>
+        <v>53.00448269814503</v>
       </c>
       <c r="J3" t="n">
-        <v>51.97094800593192</v>
+        <v>53.00448269814503</v>
       </c>
       <c r="K3" t="n">
-        <v>51.97094800593192</v>
+        <v>53.00448269814503</v>
       </c>
       <c r="L3" t="n">
-        <v>51.97094800593192</v>
+        <v>53.00448269814503</v>
       </c>
       <c r="M3" t="n">
-        <v>51.97094800593192</v>
+        <v>53.00448269814503</v>
       </c>
       <c r="N3" t="n">
-        <v>51.97094800593192</v>
+        <v>53.00448269814503</v>
       </c>
       <c r="O3" t="n">
-        <v>51.97094800593192</v>
+        <v>53.00448269814503</v>
       </c>
       <c r="P3" t="n">
-        <v>51.97094800593192</v>
+        <v>53.02671201573919</v>
       </c>
     </row>
     <row r="4">
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>38.15175619547406</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>13.81919181045787</v>
+        <v>53.00448269814503</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.02222931759416014</v>
       </c>
     </row>
     <row r="4">
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1533738942531619</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.570740394520195</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>5.912947058195032</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>13.01741755736932</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>19.50973450110566</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>24.20355081735588</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>26.93111380928054</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>27.36688738632734</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>25.84177572534746</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>22.05535771097252</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>16.56265512303115</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>9.634372884880191</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>3.495007615293931</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6713942220932166</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01226991154025295</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08206226804309516</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7925487466267348</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.825389491834636</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.753084718931198</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>13.25125667781857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>17.81794990997117</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>20.79270712653336</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>19.52470111637624</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>15.67029397394858</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.47517653125544</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>5.095059063237085</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.524270636677666</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3307685277701948</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.005398833423887841</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06879824887708436</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.611678976379896</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2.068950975321774</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.864036195609865</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.993105642264891</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>10.22842329214398</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>10.78443823079605</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>10.52800839407238</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>9.724319759462801</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>8.320835482370274</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.760915185516583</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>3.093419444964175</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1.198965846339733</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2939561542929968</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.003752631756931878</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.208928434194701</v>
+        <v>0.2130833475302311</v>
       </c>
       <c r="H11" t="n">
-        <v>2.139688326696483</v>
+        <v>2.18223983289398</v>
       </c>
       <c r="I11" t="n">
-        <v>8.05471345929122</v>
+        <v>8.214895755659242</v>
       </c>
       <c r="J11" t="n">
-        <v>17.73253969173252</v>
+        <v>18.08518276744397</v>
       </c>
       <c r="K11" t="n">
-        <v>26.57648031119422</v>
+        <v>27.10500086839865</v>
       </c>
       <c r="L11" t="n">
-        <v>32.97047387918031</v>
+        <v>33.62615036537697</v>
       </c>
       <c r="M11" t="n">
-        <v>36.68600492079032</v>
+        <v>37.41557134701772</v>
       </c>
       <c r="N11" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>35.20209071692246</v>
+        <v>35.90214687118425</v>
       </c>
       <c r="P11" t="n">
-        <v>30.04416999774078</v>
+        <v>30.64165172903166</v>
       </c>
       <c r="Q11" t="n">
-        <v>22.56192044814304</v>
+        <v>23.01060434560526</v>
       </c>
       <c r="R11" t="n">
-        <v>13.1241007544829</v>
+        <v>13.38509682929589</v>
       </c>
       <c r="S11" t="n">
-        <v>4.760956694211755</v>
+        <v>4.855636781845146</v>
       </c>
       <c r="T11" t="n">
-        <v>0.9145842206873043</v>
+        <v>0.9327723538135871</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01671427473557608</v>
+        <v>0.01704666780241848</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1117865674089857</v>
+        <v>0.1140096420299723</v>
       </c>
       <c r="H12" t="n">
-        <v>1.079622901028888</v>
+        <v>1.101093121710522</v>
       </c>
       <c r="I12" t="n">
-        <v>3.848791904212884</v>
+        <v>3.925331973400363</v>
       </c>
       <c r="J12" t="n">
-        <v>10.56137916033754</v>
+        <v>10.77141096038436</v>
       </c>
       <c r="K12" t="n">
-        <v>18.05107917673958</v>
+        <v>18.4100569763925</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -31856,22 +31858,22 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.34633145549306</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.26945727136455</v>
+        <v>14.55323079666805</v>
       </c>
       <c r="R12" t="n">
-        <v>6.940573018603515</v>
+        <v>7.078598651650389</v>
       </c>
       <c r="S12" t="n">
-        <v>2.076386460425675</v>
+        <v>2.117679096477774</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4505783133721832</v>
+        <v>0.4595388641471251</v>
       </c>
       <c r="U12" t="n">
-        <v>0.007354379434801691</v>
+        <v>0.00750063434407713</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09371810296151657</v>
+        <v>0.09558185404583529</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8332391336033025</v>
+        <v>0.8498095750620634</v>
       </c>
       <c r="I13" t="n">
-        <v>2.818358950879063</v>
+        <v>2.874407028942029</v>
       </c>
       <c r="J13" t="n">
-        <v>6.625869879379222</v>
+        <v>6.757637081040554</v>
       </c>
       <c r="K13" t="n">
-        <v>10.88833959861983</v>
+        <v>11.10487358823431</v>
       </c>
       <c r="L13" t="n">
-        <v>13.93332596211493</v>
+        <v>14.2104149187781</v>
       </c>
       <c r="M13" t="n">
-        <v>14.69073863059482</v>
+        <v>14.98289008465761</v>
       </c>
       <c r="N13" t="n">
-        <v>14.34142570137463</v>
+        <v>14.62663044685042</v>
       </c>
       <c r="O13" t="n">
-        <v>13.24662786223328</v>
+        <v>13.51006060640589</v>
       </c>
       <c r="P13" t="n">
-        <v>11.33477856181833</v>
+        <v>11.56019078387084</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.847613148895721</v>
+        <v>8.003676887419898</v>
       </c>
       <c r="R13" t="n">
-        <v>4.213906702251462</v>
+        <v>4.297707728279101</v>
       </c>
       <c r="S13" t="n">
-        <v>1.633250939792975</v>
+        <v>1.665731038235147</v>
       </c>
       <c r="T13" t="n">
-        <v>0.4004318944719343</v>
+        <v>0.4083951945594779</v>
       </c>
       <c r="U13" t="n">
-        <v>0.005111896525173638</v>
+        <v>0.005213555675227385</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.208928434194701</v>
+        <v>0.2130833475302311</v>
       </c>
       <c r="H14" t="n">
-        <v>2.139688326696483</v>
+        <v>2.18223983289398</v>
       </c>
       <c r="I14" t="n">
-        <v>8.05471345929122</v>
+        <v>8.214895755659242</v>
       </c>
       <c r="J14" t="n">
-        <v>17.73253969173252</v>
+        <v>18.08518276744397</v>
       </c>
       <c r="K14" t="n">
-        <v>26.57648031119422</v>
+        <v>27.10500086839865</v>
       </c>
       <c r="L14" t="n">
-        <v>32.97047387918031</v>
+        <v>33.62615036537697</v>
       </c>
       <c r="M14" t="n">
-        <v>36.68600492079032</v>
+        <v>37.41557134701772</v>
       </c>
       <c r="N14" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>35.20209071692246</v>
+        <v>35.90214687118425</v>
       </c>
       <c r="P14" t="n">
-        <v>30.04416999774078</v>
+        <v>30.64165172903166</v>
       </c>
       <c r="Q14" t="n">
-        <v>22.56192044814304</v>
+        <v>23.01060434560526</v>
       </c>
       <c r="R14" t="n">
-        <v>13.1241007544829</v>
+        <v>13.38509682929589</v>
       </c>
       <c r="S14" t="n">
-        <v>4.760956694211755</v>
+        <v>4.855636781845146</v>
       </c>
       <c r="T14" t="n">
-        <v>0.9145842206873043</v>
+        <v>0.9327723538135871</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01671427473557608</v>
+        <v>0.01704666780241848</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1117865674089857</v>
+        <v>0.1140096420299723</v>
       </c>
       <c r="H15" t="n">
-        <v>1.079622901028888</v>
+        <v>1.101093121710522</v>
       </c>
       <c r="I15" t="n">
-        <v>3.848791904212884</v>
+        <v>3.925331973400363</v>
       </c>
       <c r="J15" t="n">
-        <v>10.56137916033754</v>
+        <v>10.77141096038436</v>
       </c>
       <c r="K15" t="n">
-        <v>18.05107917673958</v>
+        <v>18.4100569763925</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -32093,22 +32095,22 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.34633145549306</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>14.26945727136455</v>
+        <v>14.55323079666805</v>
       </c>
       <c r="R15" t="n">
-        <v>6.940573018603515</v>
+        <v>7.078598651650389</v>
       </c>
       <c r="S15" t="n">
-        <v>2.076386460425675</v>
+        <v>2.117679096477774</v>
       </c>
       <c r="T15" t="n">
-        <v>0.4505783133721832</v>
+        <v>0.4595388641471251</v>
       </c>
       <c r="U15" t="n">
-        <v>0.007354379434801691</v>
+        <v>0.00750063434407713</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09371810296151657</v>
+        <v>0.09558185404583529</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8332391336033025</v>
+        <v>0.8498095750620634</v>
       </c>
       <c r="I16" t="n">
-        <v>2.818358950879063</v>
+        <v>2.874407028942029</v>
       </c>
       <c r="J16" t="n">
-        <v>6.625869879379222</v>
+        <v>6.757637081040554</v>
       </c>
       <c r="K16" t="n">
-        <v>10.88833959861983</v>
+        <v>11.10487358823431</v>
       </c>
       <c r="L16" t="n">
-        <v>13.93332596211493</v>
+        <v>14.2104149187781</v>
       </c>
       <c r="M16" t="n">
-        <v>14.69073863059482</v>
+        <v>14.98289008465761</v>
       </c>
       <c r="N16" t="n">
-        <v>14.34142570137463</v>
+        <v>14.62663044685042</v>
       </c>
       <c r="O16" t="n">
-        <v>13.24662786223328</v>
+        <v>13.51006060640589</v>
       </c>
       <c r="P16" t="n">
-        <v>11.33477856181833</v>
+        <v>11.56019078387084</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.847613148895721</v>
+        <v>8.003676887419898</v>
       </c>
       <c r="R16" t="n">
-        <v>4.213906702251462</v>
+        <v>4.297707728279101</v>
       </c>
       <c r="S16" t="n">
-        <v>1.633250939792975</v>
+        <v>1.665731038235147</v>
       </c>
       <c r="T16" t="n">
-        <v>0.4004318944719343</v>
+        <v>0.4083951945594779</v>
       </c>
       <c r="U16" t="n">
-        <v>0.005111896525173638</v>
+        <v>0.005213555675227385</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.208928434194701</v>
+        <v>0.2130833475302311</v>
       </c>
       <c r="H17" t="n">
-        <v>2.139688326696483</v>
+        <v>2.18223983289398</v>
       </c>
       <c r="I17" t="n">
-        <v>8.05471345929122</v>
+        <v>8.214895755659242</v>
       </c>
       <c r="J17" t="n">
-        <v>17.73253969173252</v>
+        <v>18.08518276744397</v>
       </c>
       <c r="K17" t="n">
-        <v>26.57648031119422</v>
+        <v>27.10500086839865</v>
       </c>
       <c r="L17" t="n">
-        <v>32.97047387918031</v>
+        <v>33.62615036537697</v>
       </c>
       <c r="M17" t="n">
-        <v>36.68600492079032</v>
+        <v>37.41557134701772</v>
       </c>
       <c r="N17" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>35.20209071692246</v>
+        <v>35.90214687118425</v>
       </c>
       <c r="P17" t="n">
-        <v>30.04416999774078</v>
+        <v>30.64165172903167</v>
       </c>
       <c r="Q17" t="n">
-        <v>22.56192044814304</v>
+        <v>23.01060434560526</v>
       </c>
       <c r="R17" t="n">
-        <v>13.1241007544829</v>
+        <v>13.38509682929589</v>
       </c>
       <c r="S17" t="n">
-        <v>4.760956694211755</v>
+        <v>4.855636781845146</v>
       </c>
       <c r="T17" t="n">
-        <v>0.9145842206873043</v>
+        <v>0.9327723538135871</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01671427473557608</v>
+        <v>0.01704666780241848</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1117865674089857</v>
+        <v>0.1140096420299723</v>
       </c>
       <c r="H18" t="n">
-        <v>1.079622901028888</v>
+        <v>1.101093121710522</v>
       </c>
       <c r="I18" t="n">
-        <v>3.848791904212884</v>
+        <v>3.925331973400363</v>
       </c>
       <c r="J18" t="n">
-        <v>10.56137916033754</v>
+        <v>10.77141096038436</v>
       </c>
       <c r="K18" t="n">
-        <v>18.05107917673958</v>
+        <v>18.4100569763925</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -32330,22 +32332,22 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.34633145549306</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>14.26945727136455</v>
+        <v>14.55323079666805</v>
       </c>
       <c r="R18" t="n">
-        <v>6.940573018603515</v>
+        <v>7.078598651650389</v>
       </c>
       <c r="S18" t="n">
-        <v>2.076386460425675</v>
+        <v>2.117679096477774</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4505783133721832</v>
+        <v>0.4595388641471251</v>
       </c>
       <c r="U18" t="n">
-        <v>0.007354379434801691</v>
+        <v>0.00750063434407713</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09371810296151657</v>
+        <v>0.09558185404583527</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8332391336033025</v>
+        <v>0.8498095750620634</v>
       </c>
       <c r="I19" t="n">
-        <v>2.818358950879063</v>
+        <v>2.874407028942029</v>
       </c>
       <c r="J19" t="n">
-        <v>6.625869879379222</v>
+        <v>6.757637081040554</v>
       </c>
       <c r="K19" t="n">
-        <v>10.88833959861983</v>
+        <v>11.10487358823431</v>
       </c>
       <c r="L19" t="n">
-        <v>13.93332596211493</v>
+        <v>14.2104149187781</v>
       </c>
       <c r="M19" t="n">
-        <v>14.69073863059482</v>
+        <v>14.98289008465761</v>
       </c>
       <c r="N19" t="n">
-        <v>14.34142570137463</v>
+        <v>14.62663044685042</v>
       </c>
       <c r="O19" t="n">
-        <v>13.24662786223328</v>
+        <v>13.51006060640589</v>
       </c>
       <c r="P19" t="n">
-        <v>11.33477856181833</v>
+        <v>11.56019078387084</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.847613148895721</v>
+        <v>8.003676887419898</v>
       </c>
       <c r="R19" t="n">
-        <v>4.213906702251462</v>
+        <v>4.297707728279102</v>
       </c>
       <c r="S19" t="n">
-        <v>1.633250939792975</v>
+        <v>1.665731038235147</v>
       </c>
       <c r="T19" t="n">
-        <v>0.4004318944719343</v>
+        <v>0.4083951945594779</v>
       </c>
       <c r="U19" t="n">
-        <v>0.005111896525173638</v>
+        <v>0.005213555675227385</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.208928434194701</v>
+        <v>0.2130833475302311</v>
       </c>
       <c r="H20" t="n">
-        <v>2.139688326696483</v>
+        <v>2.18223983289398</v>
       </c>
       <c r="I20" t="n">
-        <v>8.05471345929122</v>
+        <v>8.214895755659242</v>
       </c>
       <c r="J20" t="n">
-        <v>17.73253969173252</v>
+        <v>18.08518276744397</v>
       </c>
       <c r="K20" t="n">
-        <v>26.57648031119422</v>
+        <v>27.10500086839865</v>
       </c>
       <c r="L20" t="n">
-        <v>32.97047387918031</v>
+        <v>33.62615036537697</v>
       </c>
       <c r="M20" t="n">
-        <v>36.68600492079032</v>
+        <v>37.41557134701772</v>
       </c>
       <c r="N20" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>35.20209071692246</v>
+        <v>35.90214687118425</v>
       </c>
       <c r="P20" t="n">
-        <v>30.04416999774078</v>
+        <v>30.64165172903167</v>
       </c>
       <c r="Q20" t="n">
-        <v>22.56192044814304</v>
+        <v>23.01060434560526</v>
       </c>
       <c r="R20" t="n">
-        <v>13.1241007544829</v>
+        <v>13.38509682929589</v>
       </c>
       <c r="S20" t="n">
-        <v>4.760956694211755</v>
+        <v>4.855636781845146</v>
       </c>
       <c r="T20" t="n">
-        <v>0.9145842206873043</v>
+        <v>0.9327723538135871</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01671427473557608</v>
+        <v>0.01704666780241848</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1117865674089857</v>
+        <v>0.1140096420299723</v>
       </c>
       <c r="H21" t="n">
-        <v>1.079622901028888</v>
+        <v>1.101093121710522</v>
       </c>
       <c r="I21" t="n">
-        <v>3.848791904212884</v>
+        <v>3.925331973400363</v>
       </c>
       <c r="J21" t="n">
-        <v>10.56137916033754</v>
+        <v>10.77141096038436</v>
       </c>
       <c r="K21" t="n">
-        <v>18.05107917673958</v>
+        <v>18.4100569763925</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -32567,22 +32569,22 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.34633145549306</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>14.26945727136455</v>
+        <v>14.55323079666805</v>
       </c>
       <c r="R21" t="n">
-        <v>6.940573018603515</v>
+        <v>7.078598651650389</v>
       </c>
       <c r="S21" t="n">
-        <v>2.076386460425675</v>
+        <v>2.117679096477774</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4505783133721832</v>
+        <v>0.4595388641471251</v>
       </c>
       <c r="U21" t="n">
-        <v>0.007354379434801691</v>
+        <v>0.00750063434407713</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09371810296151657</v>
+        <v>0.09558185404583527</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8332391336033025</v>
+        <v>0.8498095750620634</v>
       </c>
       <c r="I22" t="n">
-        <v>2.818358950879063</v>
+        <v>2.874407028942029</v>
       </c>
       <c r="J22" t="n">
-        <v>6.625869879379222</v>
+        <v>6.757637081040554</v>
       </c>
       <c r="K22" t="n">
-        <v>10.88833959861983</v>
+        <v>11.10487358823431</v>
       </c>
       <c r="L22" t="n">
-        <v>13.93332596211493</v>
+        <v>14.2104149187781</v>
       </c>
       <c r="M22" t="n">
-        <v>14.69073863059482</v>
+        <v>14.98289008465761</v>
       </c>
       <c r="N22" t="n">
-        <v>14.34142570137463</v>
+        <v>14.62663044685042</v>
       </c>
       <c r="O22" t="n">
-        <v>13.24662786223328</v>
+        <v>13.51006060640589</v>
       </c>
       <c r="P22" t="n">
-        <v>11.33477856181833</v>
+        <v>11.56019078387084</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.847613148895721</v>
+        <v>8.003676887419898</v>
       </c>
       <c r="R22" t="n">
-        <v>4.213906702251462</v>
+        <v>4.297707728279102</v>
       </c>
       <c r="S22" t="n">
-        <v>1.633250939792975</v>
+        <v>1.665731038235147</v>
       </c>
       <c r="T22" t="n">
-        <v>0.4004318944719343</v>
+        <v>0.4083951945594779</v>
       </c>
       <c r="U22" t="n">
-        <v>0.005111896525173638</v>
+        <v>0.005213555675227385</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.208928434194701</v>
+        <v>0.2130833475302311</v>
       </c>
       <c r="H23" t="n">
-        <v>2.139688326696483</v>
+        <v>2.18223983289398</v>
       </c>
       <c r="I23" t="n">
-        <v>8.05471345929122</v>
+        <v>8.214895755659242</v>
       </c>
       <c r="J23" t="n">
-        <v>17.73253969173252</v>
+        <v>18.08518276744397</v>
       </c>
       <c r="K23" t="n">
-        <v>26.57648031119422</v>
+        <v>27.10500086839865</v>
       </c>
       <c r="L23" t="n">
-        <v>32.97047387918031</v>
+        <v>33.62615036537697</v>
       </c>
       <c r="M23" t="n">
-        <v>36.68600492079032</v>
+        <v>37.41557134701772</v>
       </c>
       <c r="N23" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>35.20209071692246</v>
+        <v>35.90214687118425</v>
       </c>
       <c r="P23" t="n">
-        <v>30.04416999774078</v>
+        <v>30.64165172903167</v>
       </c>
       <c r="Q23" t="n">
-        <v>22.56192044814304</v>
+        <v>23.01060434560526</v>
       </c>
       <c r="R23" t="n">
-        <v>13.1241007544829</v>
+        <v>13.38509682929589</v>
       </c>
       <c r="S23" t="n">
-        <v>4.760956694211755</v>
+        <v>4.855636781845146</v>
       </c>
       <c r="T23" t="n">
-        <v>0.9145842206873043</v>
+        <v>0.9327723538135871</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01671427473557608</v>
+        <v>0.01704666780241848</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1117865674089857</v>
+        <v>0.1140096420299723</v>
       </c>
       <c r="H24" t="n">
-        <v>1.079622901028888</v>
+        <v>1.101093121710522</v>
       </c>
       <c r="I24" t="n">
-        <v>3.848791904212884</v>
+        <v>3.925331973400363</v>
       </c>
       <c r="J24" t="n">
-        <v>10.56137916033754</v>
+        <v>10.77141096038436</v>
       </c>
       <c r="K24" t="n">
-        <v>18.05107917673958</v>
+        <v>18.4100569763925</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -32804,22 +32806,22 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.34633145549306</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>14.26945727136455</v>
+        <v>14.55323079666805</v>
       </c>
       <c r="R24" t="n">
-        <v>6.940573018603515</v>
+        <v>7.078598651650389</v>
       </c>
       <c r="S24" t="n">
-        <v>2.076386460425675</v>
+        <v>2.117679096477774</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4505783133721832</v>
+        <v>0.4595388641471251</v>
       </c>
       <c r="U24" t="n">
-        <v>0.007354379434801691</v>
+        <v>0.00750063434407713</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09371810296151657</v>
+        <v>0.09558185404583527</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8332391336033025</v>
+        <v>0.8498095750620634</v>
       </c>
       <c r="I25" t="n">
-        <v>2.818358950879063</v>
+        <v>2.874407028942029</v>
       </c>
       <c r="J25" t="n">
-        <v>6.625869879379222</v>
+        <v>6.757637081040554</v>
       </c>
       <c r="K25" t="n">
-        <v>10.88833959861983</v>
+        <v>11.10487358823431</v>
       </c>
       <c r="L25" t="n">
-        <v>13.93332596211493</v>
+        <v>14.2104149187781</v>
       </c>
       <c r="M25" t="n">
-        <v>14.69073863059482</v>
+        <v>14.98289008465761</v>
       </c>
       <c r="N25" t="n">
-        <v>14.34142570137463</v>
+        <v>14.62663044685042</v>
       </c>
       <c r="O25" t="n">
-        <v>13.24662786223328</v>
+        <v>13.51006060640589</v>
       </c>
       <c r="P25" t="n">
-        <v>11.33477856181833</v>
+        <v>11.56019078387084</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.847613148895721</v>
+        <v>8.003676887419898</v>
       </c>
       <c r="R25" t="n">
-        <v>4.213906702251462</v>
+        <v>4.297707728279102</v>
       </c>
       <c r="S25" t="n">
-        <v>1.633250939792975</v>
+        <v>1.665731038235147</v>
       </c>
       <c r="T25" t="n">
-        <v>0.4004318944719343</v>
+        <v>0.4083951945594779</v>
       </c>
       <c r="U25" t="n">
-        <v>0.005111896525173638</v>
+        <v>0.005213555675227385</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.208928434194701</v>
+        <v>0.2130833475302311</v>
       </c>
       <c r="H26" t="n">
-        <v>2.139688326696483</v>
+        <v>2.18223983289398</v>
       </c>
       <c r="I26" t="n">
-        <v>8.05471345929122</v>
+        <v>8.214895755659242</v>
       </c>
       <c r="J26" t="n">
-        <v>17.73253969173252</v>
+        <v>18.08518276744397</v>
       </c>
       <c r="K26" t="n">
-        <v>26.57648031119422</v>
+        <v>27.10500086839865</v>
       </c>
       <c r="L26" t="n">
-        <v>32.97047387918031</v>
+        <v>33.62615036537697</v>
       </c>
       <c r="M26" t="n">
-        <v>36.68600492079032</v>
+        <v>37.41557134701772</v>
       </c>
       <c r="N26" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>35.20209071692246</v>
+        <v>35.90214687118425</v>
       </c>
       <c r="P26" t="n">
-        <v>30.04416999774078</v>
+        <v>30.64165172903167</v>
       </c>
       <c r="Q26" t="n">
-        <v>22.56192044814304</v>
+        <v>23.01060434560526</v>
       </c>
       <c r="R26" t="n">
-        <v>13.1241007544829</v>
+        <v>13.38509682929589</v>
       </c>
       <c r="S26" t="n">
-        <v>4.760956694211755</v>
+        <v>4.855636781845146</v>
       </c>
       <c r="T26" t="n">
-        <v>0.9145842206873043</v>
+        <v>0.9327723538135871</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01671427473557608</v>
+        <v>0.01704666780241848</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1117865674089857</v>
+        <v>0.1140096420299723</v>
       </c>
       <c r="H27" t="n">
-        <v>1.079622901028888</v>
+        <v>1.101093121710522</v>
       </c>
       <c r="I27" t="n">
-        <v>3.848791904212884</v>
+        <v>3.925331973400363</v>
       </c>
       <c r="J27" t="n">
-        <v>10.56137916033754</v>
+        <v>10.77141096038436</v>
       </c>
       <c r="K27" t="n">
-        <v>18.05107917673958</v>
+        <v>18.4100569763925</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -33041,22 +33043,22 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.34633145549306</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>14.26945727136455</v>
+        <v>14.55323079666805</v>
       </c>
       <c r="R27" t="n">
-        <v>6.940573018603515</v>
+        <v>7.078598651650389</v>
       </c>
       <c r="S27" t="n">
-        <v>2.076386460425675</v>
+        <v>2.117679096477774</v>
       </c>
       <c r="T27" t="n">
-        <v>0.4505783133721832</v>
+        <v>0.4595388641471251</v>
       </c>
       <c r="U27" t="n">
-        <v>0.007354379434801691</v>
+        <v>0.00750063434407713</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.09371810296151657</v>
+        <v>0.09558185404583527</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8332391336033025</v>
+        <v>0.8498095750620634</v>
       </c>
       <c r="I28" t="n">
-        <v>2.818358950879063</v>
+        <v>2.874407028942029</v>
       </c>
       <c r="J28" t="n">
-        <v>6.625869879379222</v>
+        <v>6.757637081040554</v>
       </c>
       <c r="K28" t="n">
-        <v>10.88833959861983</v>
+        <v>11.10487358823431</v>
       </c>
       <c r="L28" t="n">
-        <v>13.93332596211493</v>
+        <v>14.2104149187781</v>
       </c>
       <c r="M28" t="n">
-        <v>14.69073863059482</v>
+        <v>14.98289008465761</v>
       </c>
       <c r="N28" t="n">
-        <v>14.34142570137463</v>
+        <v>14.62663044685042</v>
       </c>
       <c r="O28" t="n">
-        <v>13.24662786223328</v>
+        <v>13.51006060640589</v>
       </c>
       <c r="P28" t="n">
-        <v>11.33477856181833</v>
+        <v>11.56019078387084</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.847613148895721</v>
+        <v>8.003676887419898</v>
       </c>
       <c r="R28" t="n">
-        <v>4.213906702251462</v>
+        <v>4.297707728279102</v>
       </c>
       <c r="S28" t="n">
-        <v>1.633250939792975</v>
+        <v>1.665731038235147</v>
       </c>
       <c r="T28" t="n">
-        <v>0.4004318944719343</v>
+        <v>0.4083951945594779</v>
       </c>
       <c r="U28" t="n">
-        <v>0.005111896525173638</v>
+        <v>0.005213555675227385</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.208928434194701</v>
+        <v>0.2130833475302311</v>
       </c>
       <c r="H29" t="n">
-        <v>2.139688326696483</v>
+        <v>2.18223983289398</v>
       </c>
       <c r="I29" t="n">
-        <v>8.05471345929122</v>
+        <v>8.214895755659242</v>
       </c>
       <c r="J29" t="n">
-        <v>17.73253969173252</v>
+        <v>18.08518276744397</v>
       </c>
       <c r="K29" t="n">
-        <v>26.57648031119422</v>
+        <v>27.10500086839865</v>
       </c>
       <c r="L29" t="n">
-        <v>32.97047387918031</v>
+        <v>33.62615036537697</v>
       </c>
       <c r="M29" t="n">
-        <v>36.68600492079032</v>
+        <v>37.41557134701772</v>
       </c>
       <c r="N29" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>35.20209071692246</v>
+        <v>35.90214687118425</v>
       </c>
       <c r="P29" t="n">
-        <v>30.04416999774078</v>
+        <v>30.64165172903166</v>
       </c>
       <c r="Q29" t="n">
-        <v>22.56192044814304</v>
+        <v>23.01060434560526</v>
       </c>
       <c r="R29" t="n">
-        <v>13.1241007544829</v>
+        <v>13.38509682929589</v>
       </c>
       <c r="S29" t="n">
-        <v>4.760956694211755</v>
+        <v>4.855636781845146</v>
       </c>
       <c r="T29" t="n">
-        <v>0.9145842206873043</v>
+        <v>0.9327723538135871</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01671427473557608</v>
+        <v>0.01704666780241848</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1117865674089857</v>
+        <v>0.1140096420299723</v>
       </c>
       <c r="H30" t="n">
-        <v>1.079622901028888</v>
+        <v>1.101093121710522</v>
       </c>
       <c r="I30" t="n">
-        <v>3.848791904212884</v>
+        <v>3.925331973400363</v>
       </c>
       <c r="J30" t="n">
-        <v>10.56137916033754</v>
+        <v>10.77141096038436</v>
       </c>
       <c r="K30" t="n">
-        <v>18.05107917673958</v>
+        <v>18.4100569763925</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -33278,22 +33280,22 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.34633145549306</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>14.26945727136455</v>
+        <v>14.55323079666805</v>
       </c>
       <c r="R30" t="n">
-        <v>6.940573018603515</v>
+        <v>7.078598651650389</v>
       </c>
       <c r="S30" t="n">
-        <v>2.076386460425675</v>
+        <v>2.117679096477774</v>
       </c>
       <c r="T30" t="n">
-        <v>0.4505783133721832</v>
+        <v>0.4595388641471251</v>
       </c>
       <c r="U30" t="n">
-        <v>0.007354379434801691</v>
+        <v>0.00750063434407713</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09371810296151657</v>
+        <v>0.09558185404583529</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8332391336033025</v>
+        <v>0.8498095750620634</v>
       </c>
       <c r="I31" t="n">
-        <v>2.818358950879063</v>
+        <v>2.874407028942029</v>
       </c>
       <c r="J31" t="n">
-        <v>6.625869879379222</v>
+        <v>6.757637081040554</v>
       </c>
       <c r="K31" t="n">
-        <v>10.88833959861983</v>
+        <v>11.10487358823431</v>
       </c>
       <c r="L31" t="n">
-        <v>13.93332596211493</v>
+        <v>14.2104149187781</v>
       </c>
       <c r="M31" t="n">
-        <v>14.69073863059482</v>
+        <v>14.98289008465761</v>
       </c>
       <c r="N31" t="n">
-        <v>14.34142570137463</v>
+        <v>14.62663044685042</v>
       </c>
       <c r="O31" t="n">
-        <v>13.24662786223328</v>
+        <v>13.51006060640589</v>
       </c>
       <c r="P31" t="n">
-        <v>11.33477856181833</v>
+        <v>11.56019078387084</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.847613148895721</v>
+        <v>8.003676887419898</v>
       </c>
       <c r="R31" t="n">
-        <v>4.213906702251462</v>
+        <v>4.297707728279101</v>
       </c>
       <c r="S31" t="n">
-        <v>1.633250939792975</v>
+        <v>1.665731038235147</v>
       </c>
       <c r="T31" t="n">
-        <v>0.4004318944719343</v>
+        <v>0.4083951945594779</v>
       </c>
       <c r="U31" t="n">
-        <v>0.005111896525173638</v>
+        <v>0.005213555675227385</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.208928434194701</v>
+        <v>0.2130833475302311</v>
       </c>
       <c r="H32" t="n">
-        <v>2.139688326696483</v>
+        <v>2.18223983289398</v>
       </c>
       <c r="I32" t="n">
-        <v>8.05471345929122</v>
+        <v>8.214895755659242</v>
       </c>
       <c r="J32" t="n">
-        <v>17.73253969173252</v>
+        <v>18.08518276744397</v>
       </c>
       <c r="K32" t="n">
-        <v>26.57648031119422</v>
+        <v>27.10500086839865</v>
       </c>
       <c r="L32" t="n">
-        <v>32.97047387918031</v>
+        <v>33.62615036537697</v>
       </c>
       <c r="M32" t="n">
-        <v>36.68600492079032</v>
+        <v>37.41557134701772</v>
       </c>
       <c r="N32" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>35.20209071692246</v>
+        <v>35.90214687118425</v>
       </c>
       <c r="P32" t="n">
-        <v>30.04416999774078</v>
+        <v>30.64165172903167</v>
       </c>
       <c r="Q32" t="n">
-        <v>22.56192044814304</v>
+        <v>23.01060434560526</v>
       </c>
       <c r="R32" t="n">
-        <v>13.1241007544829</v>
+        <v>13.38509682929589</v>
       </c>
       <c r="S32" t="n">
-        <v>4.760956694211755</v>
+        <v>4.855636781845146</v>
       </c>
       <c r="T32" t="n">
-        <v>0.9145842206873043</v>
+        <v>0.9327723538135871</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01671427473557608</v>
+        <v>0.01704666780241848</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1117865674089857</v>
+        <v>0.1140096420299723</v>
       </c>
       <c r="H33" t="n">
-        <v>1.079622901028888</v>
+        <v>1.101093121710522</v>
       </c>
       <c r="I33" t="n">
-        <v>3.848791904212884</v>
+        <v>3.925331973400363</v>
       </c>
       <c r="J33" t="n">
-        <v>10.56137916033754</v>
+        <v>10.77141096038436</v>
       </c>
       <c r="K33" t="n">
-        <v>18.05107917673958</v>
+        <v>18.4100569763925</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -33515,22 +33517,22 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.34633145549306</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>14.26945727136455</v>
+        <v>14.55323079666805</v>
       </c>
       <c r="R33" t="n">
-        <v>6.940573018603515</v>
+        <v>7.078598651650389</v>
       </c>
       <c r="S33" t="n">
-        <v>2.076386460425675</v>
+        <v>2.117679096477774</v>
       </c>
       <c r="T33" t="n">
-        <v>0.4505783133721832</v>
+        <v>0.4595388641471251</v>
       </c>
       <c r="U33" t="n">
-        <v>0.007354379434801691</v>
+        <v>0.00750063434407713</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.09371810296151657</v>
+        <v>0.09558185404583527</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8332391336033025</v>
+        <v>0.8498095750620634</v>
       </c>
       <c r="I34" t="n">
-        <v>2.818358950879063</v>
+        <v>2.874407028942029</v>
       </c>
       <c r="J34" t="n">
-        <v>6.625869879379222</v>
+        <v>6.757637081040554</v>
       </c>
       <c r="K34" t="n">
-        <v>10.88833959861983</v>
+        <v>11.10487358823431</v>
       </c>
       <c r="L34" t="n">
-        <v>13.93332596211493</v>
+        <v>14.2104149187781</v>
       </c>
       <c r="M34" t="n">
-        <v>14.69073863059482</v>
+        <v>14.98289008465761</v>
       </c>
       <c r="N34" t="n">
-        <v>14.34142570137463</v>
+        <v>14.62663044685042</v>
       </c>
       <c r="O34" t="n">
-        <v>13.24662786223328</v>
+        <v>13.51006060640589</v>
       </c>
       <c r="P34" t="n">
-        <v>11.33477856181833</v>
+        <v>11.56019078387084</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.847613148895721</v>
+        <v>8.003676887419898</v>
       </c>
       <c r="R34" t="n">
-        <v>4.213906702251462</v>
+        <v>4.297707728279102</v>
       </c>
       <c r="S34" t="n">
-        <v>1.633250939792975</v>
+        <v>1.665731038235147</v>
       </c>
       <c r="T34" t="n">
-        <v>0.4004318944719343</v>
+        <v>0.4083951945594779</v>
       </c>
       <c r="U34" t="n">
-        <v>0.005111896525173638</v>
+        <v>0.005213555675227385</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.208928434194701</v>
+        <v>0.2130833475302311</v>
       </c>
       <c r="H35" t="n">
-        <v>2.139688326696483</v>
+        <v>2.18223983289398</v>
       </c>
       <c r="I35" t="n">
-        <v>8.05471345929122</v>
+        <v>8.214895755659242</v>
       </c>
       <c r="J35" t="n">
-        <v>17.73253969173252</v>
+        <v>18.08518276744397</v>
       </c>
       <c r="K35" t="n">
-        <v>26.57648031119422</v>
+        <v>27.10500086839865</v>
       </c>
       <c r="L35" t="n">
-        <v>32.97047387918031</v>
+        <v>33.62615036537697</v>
       </c>
       <c r="M35" t="n">
-        <v>36.68600492079032</v>
+        <v>37.41557134701772</v>
       </c>
       <c r="N35" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>35.20209071692246</v>
+        <v>35.90214687118425</v>
       </c>
       <c r="P35" t="n">
-        <v>30.04416999774078</v>
+        <v>30.64165172903167</v>
       </c>
       <c r="Q35" t="n">
-        <v>22.56192044814304</v>
+        <v>23.01060434560526</v>
       </c>
       <c r="R35" t="n">
-        <v>13.1241007544829</v>
+        <v>13.38509682929589</v>
       </c>
       <c r="S35" t="n">
-        <v>4.760956694211755</v>
+        <v>4.855636781845146</v>
       </c>
       <c r="T35" t="n">
-        <v>0.9145842206873043</v>
+        <v>0.9327723538135871</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01671427473557608</v>
+        <v>0.01704666780241848</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1117865674089857</v>
+        <v>0.1140096420299723</v>
       </c>
       <c r="H36" t="n">
-        <v>1.079622901028888</v>
+        <v>1.101093121710522</v>
       </c>
       <c r="I36" t="n">
-        <v>3.848791904212884</v>
+        <v>3.925331973400363</v>
       </c>
       <c r="J36" t="n">
-        <v>10.56137916033754</v>
+        <v>10.77141096038436</v>
       </c>
       <c r="K36" t="n">
-        <v>18.05107917673958</v>
+        <v>18.4100569763925</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -33752,22 +33754,22 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.34633145549306</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>14.26945727136455</v>
+        <v>14.55323079666805</v>
       </c>
       <c r="R36" t="n">
-        <v>6.940573018603515</v>
+        <v>7.078598651650389</v>
       </c>
       <c r="S36" t="n">
-        <v>2.076386460425675</v>
+        <v>2.117679096477774</v>
       </c>
       <c r="T36" t="n">
-        <v>0.4505783133721832</v>
+        <v>0.4595388641471251</v>
       </c>
       <c r="U36" t="n">
-        <v>0.007354379434801691</v>
+        <v>0.00750063434407713</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.09371810296151657</v>
+        <v>0.09558185404583527</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8332391336033025</v>
+        <v>0.8498095750620634</v>
       </c>
       <c r="I37" t="n">
-        <v>2.818358950879063</v>
+        <v>2.874407028942029</v>
       </c>
       <c r="J37" t="n">
-        <v>6.625869879379222</v>
+        <v>6.757637081040554</v>
       </c>
       <c r="K37" t="n">
-        <v>10.88833959861983</v>
+        <v>11.10487358823431</v>
       </c>
       <c r="L37" t="n">
-        <v>13.93332596211493</v>
+        <v>14.2104149187781</v>
       </c>
       <c r="M37" t="n">
-        <v>14.69073863059482</v>
+        <v>14.98289008465761</v>
       </c>
       <c r="N37" t="n">
-        <v>14.34142570137463</v>
+        <v>14.62663044685042</v>
       </c>
       <c r="O37" t="n">
-        <v>13.24662786223328</v>
+        <v>13.51006060640589</v>
       </c>
       <c r="P37" t="n">
-        <v>11.33477856181833</v>
+        <v>11.56019078387084</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.847613148895721</v>
+        <v>8.003676887419898</v>
       </c>
       <c r="R37" t="n">
-        <v>4.213906702251462</v>
+        <v>4.297707728279102</v>
       </c>
       <c r="S37" t="n">
-        <v>1.633250939792975</v>
+        <v>1.665731038235147</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4004318944719343</v>
+        <v>0.4083951945594779</v>
       </c>
       <c r="U37" t="n">
-        <v>0.005111896525173638</v>
+        <v>0.005213555675227385</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.208928434194701</v>
+        <v>0.2130833475302311</v>
       </c>
       <c r="H38" t="n">
-        <v>2.139688326696483</v>
+        <v>2.18223983289398</v>
       </c>
       <c r="I38" t="n">
-        <v>8.05471345929122</v>
+        <v>8.214895755659242</v>
       </c>
       <c r="J38" t="n">
-        <v>17.73253969173252</v>
+        <v>18.08518276744397</v>
       </c>
       <c r="K38" t="n">
-        <v>26.57648031119422</v>
+        <v>27.10500086839865</v>
       </c>
       <c r="L38" t="n">
-        <v>32.97047387918031</v>
+        <v>33.62615036537697</v>
       </c>
       <c r="M38" t="n">
-        <v>36.68600492079032</v>
+        <v>37.41557134701772</v>
       </c>
       <c r="N38" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>35.20209071692246</v>
+        <v>35.90214687118425</v>
       </c>
       <c r="P38" t="n">
-        <v>30.04416999774078</v>
+        <v>30.64165172903167</v>
       </c>
       <c r="Q38" t="n">
-        <v>22.56192044814304</v>
+        <v>23.01060434560526</v>
       </c>
       <c r="R38" t="n">
-        <v>13.1241007544829</v>
+        <v>13.38509682929589</v>
       </c>
       <c r="S38" t="n">
-        <v>4.760956694211755</v>
+        <v>4.855636781845146</v>
       </c>
       <c r="T38" t="n">
-        <v>0.9145842206873043</v>
+        <v>0.9327723538135871</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01671427473557608</v>
+        <v>0.01704666780241848</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1117865674089857</v>
+        <v>0.1140096420299723</v>
       </c>
       <c r="H39" t="n">
-        <v>1.079622901028888</v>
+        <v>1.101093121710522</v>
       </c>
       <c r="I39" t="n">
-        <v>3.848791904212884</v>
+        <v>3.925331973400363</v>
       </c>
       <c r="J39" t="n">
-        <v>10.56137916033754</v>
+        <v>10.77141096038436</v>
       </c>
       <c r="K39" t="n">
-        <v>18.05107917673958</v>
+        <v>18.4100569763925</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -33989,22 +33991,22 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.34633145549306</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>14.26945727136455</v>
+        <v>14.55323079666805</v>
       </c>
       <c r="R39" t="n">
-        <v>6.940573018603515</v>
+        <v>7.078598651650389</v>
       </c>
       <c r="S39" t="n">
-        <v>2.076386460425675</v>
+        <v>2.117679096477774</v>
       </c>
       <c r="T39" t="n">
-        <v>0.4505783133721832</v>
+        <v>0.4595388641471251</v>
       </c>
       <c r="U39" t="n">
-        <v>0.007354379434801691</v>
+        <v>0.00750063434407713</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.09371810296151657</v>
+        <v>0.09558185404583527</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8332391336033025</v>
+        <v>0.8498095750620634</v>
       </c>
       <c r="I40" t="n">
-        <v>2.818358950879063</v>
+        <v>2.874407028942029</v>
       </c>
       <c r="J40" t="n">
-        <v>6.625869879379222</v>
+        <v>6.757637081040554</v>
       </c>
       <c r="K40" t="n">
-        <v>10.88833959861983</v>
+        <v>11.10487358823431</v>
       </c>
       <c r="L40" t="n">
-        <v>13.93332596211493</v>
+        <v>14.2104149187781</v>
       </c>
       <c r="M40" t="n">
-        <v>14.69073863059482</v>
+        <v>14.98289008465761</v>
       </c>
       <c r="N40" t="n">
-        <v>14.34142570137463</v>
+        <v>14.62663044685042</v>
       </c>
       <c r="O40" t="n">
-        <v>13.24662786223328</v>
+        <v>13.51006060640589</v>
       </c>
       <c r="P40" t="n">
-        <v>11.33477856181833</v>
+        <v>11.56019078387084</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.847613148895721</v>
+        <v>8.003676887419898</v>
       </c>
       <c r="R40" t="n">
-        <v>4.213906702251462</v>
+        <v>4.297707728279102</v>
       </c>
       <c r="S40" t="n">
-        <v>1.633250939792975</v>
+        <v>1.665731038235147</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4004318944719343</v>
+        <v>0.4083951945594779</v>
       </c>
       <c r="U40" t="n">
-        <v>0.005111896525173638</v>
+        <v>0.005213555675227385</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.208928434194701</v>
+        <v>0.2130833475302311</v>
       </c>
       <c r="H41" t="n">
-        <v>2.139688326696482</v>
+        <v>2.18223983289398</v>
       </c>
       <c r="I41" t="n">
-        <v>8.05471345929122</v>
+        <v>8.214895755659242</v>
       </c>
       <c r="J41" t="n">
-        <v>17.73253969173252</v>
+        <v>18.08518276744397</v>
       </c>
       <c r="K41" t="n">
-        <v>26.57648031119422</v>
+        <v>27.10500086839865</v>
       </c>
       <c r="L41" t="n">
-        <v>32.97047387918031</v>
+        <v>33.62615036537697</v>
       </c>
       <c r="M41" t="n">
-        <v>36.68600492079032</v>
+        <v>37.41557134701772</v>
       </c>
       <c r="N41" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>35.20209071692246</v>
+        <v>35.90214687118425</v>
       </c>
       <c r="P41" t="n">
-        <v>30.04416999774077</v>
+        <v>30.64165172903167</v>
       </c>
       <c r="Q41" t="n">
-        <v>22.56192044814304</v>
+        <v>23.01060434560526</v>
       </c>
       <c r="R41" t="n">
-        <v>13.1241007544829</v>
+        <v>13.38509682929589</v>
       </c>
       <c r="S41" t="n">
-        <v>4.760956694211755</v>
+        <v>4.855636781845146</v>
       </c>
       <c r="T41" t="n">
-        <v>0.9145842206873043</v>
+        <v>0.9327723538135871</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01671427473557608</v>
+        <v>0.01704666780241848</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1117865674089856</v>
+        <v>0.1140096420299723</v>
       </c>
       <c r="H42" t="n">
-        <v>1.079622901028888</v>
+        <v>1.101093121710522</v>
       </c>
       <c r="I42" t="n">
-        <v>3.848791904212884</v>
+        <v>3.925331973400363</v>
       </c>
       <c r="J42" t="n">
-        <v>10.56137916033754</v>
+        <v>10.77141096038436</v>
       </c>
       <c r="K42" t="n">
-        <v>18.05107917673958</v>
+        <v>18.4100569763925</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -34226,22 +34228,22 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.34633145549306</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>14.26945727136456</v>
+        <v>14.55323079666805</v>
       </c>
       <c r="R42" t="n">
-        <v>6.940573018603515</v>
+        <v>7.078598651650389</v>
       </c>
       <c r="S42" t="n">
-        <v>2.076386460425675</v>
+        <v>2.117679096477774</v>
       </c>
       <c r="T42" t="n">
-        <v>0.4505783133721832</v>
+        <v>0.4595388641471251</v>
       </c>
       <c r="U42" t="n">
-        <v>0.007354379434801691</v>
+        <v>0.00750063434407713</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.09371810296151657</v>
+        <v>0.09558185404583527</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8332391336033026</v>
+        <v>0.8498095750620634</v>
       </c>
       <c r="I43" t="n">
-        <v>2.818358950879063</v>
+        <v>2.874407028942029</v>
       </c>
       <c r="J43" t="n">
-        <v>6.625869879379222</v>
+        <v>6.757637081040554</v>
       </c>
       <c r="K43" t="n">
-        <v>10.88833959861983</v>
+        <v>11.10487358823431</v>
       </c>
       <c r="L43" t="n">
-        <v>13.93332596211493</v>
+        <v>14.2104149187781</v>
       </c>
       <c r="M43" t="n">
-        <v>14.69073863059482</v>
+        <v>14.98289008465761</v>
       </c>
       <c r="N43" t="n">
-        <v>14.34142570137463</v>
+        <v>14.62663044685042</v>
       </c>
       <c r="O43" t="n">
-        <v>13.24662786223328</v>
+        <v>13.51006060640589</v>
       </c>
       <c r="P43" t="n">
-        <v>11.33477856181833</v>
+        <v>11.56019078387084</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.84761314889572</v>
+        <v>8.003676887419898</v>
       </c>
       <c r="R43" t="n">
-        <v>4.213906702251462</v>
+        <v>4.297707728279102</v>
       </c>
       <c r="S43" t="n">
-        <v>1.633250939792974</v>
+        <v>1.665731038235147</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4004318944719343</v>
+        <v>0.4083951945594779</v>
       </c>
       <c r="U43" t="n">
-        <v>0.005111896525173638</v>
+        <v>0.005213555675227385</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.208928434194701</v>
+        <v>0.2131727116210619</v>
       </c>
       <c r="H44" t="n">
-        <v>2.139688326696483</v>
+        <v>2.183155032889201</v>
       </c>
       <c r="I44" t="n">
-        <v>8.05471345929122</v>
+        <v>8.218340964770999</v>
       </c>
       <c r="J44" t="n">
-        <v>17.73253969173252</v>
+        <v>18.09276743294812</v>
       </c>
       <c r="K44" t="n">
-        <v>26.57648031119422</v>
+        <v>27.11636831586767</v>
       </c>
       <c r="L44" t="n">
-        <v>32.97047387918031</v>
+        <v>33.64025268914076</v>
       </c>
       <c r="M44" t="n">
-        <v>36.68600492079032</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>35.20209071692246</v>
+        <v>35.91720371514322</v>
       </c>
       <c r="P44" t="n">
-        <v>30.04416999774078</v>
+        <v>30.65450239699825</v>
       </c>
       <c r="Q44" t="n">
-        <v>22.56192044814304</v>
+        <v>23.02025466206896</v>
       </c>
       <c r="R44" t="n">
-        <v>13.1241007544829</v>
+        <v>13.39071034636654</v>
       </c>
       <c r="S44" t="n">
-        <v>4.760956694211755</v>
+        <v>4.857673166064953</v>
       </c>
       <c r="T44" t="n">
-        <v>0.9145842206873043</v>
+        <v>0.9331635451211989</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01671427473557608</v>
+        <v>0.01705381692968495</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1117865674089857</v>
+        <v>0.1140574560338541</v>
       </c>
       <c r="H45" t="n">
-        <v>1.079622901028888</v>
+        <v>1.101554904326959</v>
       </c>
       <c r="I45" t="n">
-        <v>3.848791904212884</v>
+        <v>3.926978201165591</v>
       </c>
       <c r="J45" t="n">
-        <v>10.56137916033754</v>
+        <v>10.77592833519847</v>
       </c>
       <c r="K45" t="n">
-        <v>18.05107917673958</v>
+        <v>18.4177778894667</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -34463,22 +34465,22 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.34633145549306</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>14.26945727136455</v>
+        <v>14.55933421232145</v>
       </c>
       <c r="R45" t="n">
-        <v>6.940573018603515</v>
+        <v>7.081567314101927</v>
       </c>
       <c r="S45" t="n">
-        <v>2.076386460425675</v>
+        <v>2.118567220628824</v>
       </c>
       <c r="T45" t="n">
-        <v>0.4505783133721832</v>
+        <v>0.4597315881364556</v>
       </c>
       <c r="U45" t="n">
-        <v>0.007354379434801691</v>
+        <v>0.007503780002227248</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.09371810296151657</v>
+        <v>0.09562193970051328</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8332391336033025</v>
+        <v>0.8501659729736551</v>
       </c>
       <c r="I46" t="n">
-        <v>2.818358950879063</v>
+        <v>2.875612513902709</v>
       </c>
       <c r="J46" t="n">
-        <v>6.625869879379222</v>
+        <v>6.760471136826289</v>
       </c>
       <c r="K46" t="n">
-        <v>10.88833959861983</v>
+        <v>11.10953081247781</v>
       </c>
       <c r="L46" t="n">
-        <v>13.93332596211493</v>
+        <v>14.21637456238359</v>
       </c>
       <c r="M46" t="n">
-        <v>14.69073863059482</v>
+        <v>14.98917369323591</v>
       </c>
       <c r="N46" t="n">
-        <v>14.34142570137463</v>
+        <v>14.63276464526128</v>
       </c>
       <c r="O46" t="n">
-        <v>13.24662786223328</v>
+        <v>13.5157265314871</v>
       </c>
       <c r="P46" t="n">
-        <v>11.33477856181833</v>
+        <v>11.56503896159662</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.847613148895721</v>
+        <v>8.007033514376618</v>
       </c>
       <c r="R46" t="n">
-        <v>4.213906702251462</v>
+        <v>4.299510125079442</v>
       </c>
       <c r="S46" t="n">
-        <v>1.633250939792975</v>
+        <v>1.666429621871672</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4004318944719343</v>
+        <v>0.4085664696294657</v>
       </c>
       <c r="U46" t="n">
-        <v>0.005111896525173638</v>
+        <v>0.005215742165482549</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-81801.83440818655</v>
+        <v>-93627.187490686</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20897608.45082173</v>
+        <v>20897633.35565815</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409549.9132594715</v>
+        <v>409541.2841059808</v>
       </c>
     </row>
     <row r="11">
@@ -23536,10 +23536,10 @@
         <v>1.488812484839848</v>
       </c>
       <c r="P14" t="n">
-        <v>6.933710081199635</v>
+        <v>6.933710081199632</v>
       </c>
       <c r="Q14" t="n">
-        <v>13.11407025899279</v>
+        <v>13.11407025899278</v>
       </c>
       <c r="R14" t="n">
         <v>21.64755306550058</v>
@@ -23688,7 +23688,7 @@
         <v>7.592549806828204</v>
       </c>
       <c r="N16" t="n">
-        <v>6.122270528749972</v>
+        <v>6.12227052874997</v>
       </c>
       <c r="O16" t="n">
         <v>8.989126892018565</v>
@@ -24721,10 +24721,10 @@
         <v>1.488812484839848</v>
       </c>
       <c r="P29" t="n">
-        <v>6.933710081199635</v>
+        <v>6.933710081199632</v>
       </c>
       <c r="Q29" t="n">
-        <v>13.11407025899279</v>
+        <v>13.11407025899278</v>
       </c>
       <c r="R29" t="n">
         <v>21.64755306550058</v>
@@ -24873,7 +24873,7 @@
         <v>7.592549806828204</v>
       </c>
       <c r="N31" t="n">
-        <v>6.122270528749972</v>
+        <v>6.12227052874997</v>
       </c>
       <c r="O31" t="n">
         <v>8.989126892018565</v>
@@ -25879,49 +25879,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.0824990748248</v>
+        <v>400.0825884389156</v>
       </c>
       <c r="H44" t="n">
-        <v>292.7065397078163</v>
+        <v>292.7074549078116</v>
       </c>
       <c r="I44" t="n">
-        <v>26.3295615791925</v>
+        <v>26.33300678830426</v>
       </c>
       <c r="J44" t="n">
-        <v>11.3271920526384</v>
+        <v>11.33477671814256</v>
       </c>
       <c r="K44" t="n">
-        <v>8.648232478941665</v>
+        <v>8.659599926410685</v>
       </c>
       <c r="L44" t="n">
-        <v>4.671789743482165</v>
+        <v>4.685892067245952</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.01569155241409703</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1.473755640880874</v>
+        <v>1.488812484839848</v>
       </c>
       <c r="P44" t="n">
-        <v>6.920859413233046</v>
+        <v>6.933710081199632</v>
       </c>
       <c r="Q44" t="n">
-        <v>13.10441994252908</v>
+        <v>13.11407025899278</v>
       </c>
       <c r="R44" t="n">
-        <v>21.64193954842993</v>
+        <v>21.64755306550058</v>
       </c>
       <c r="S44" t="n">
-        <v>98.46594801952604</v>
+        <v>98.46798440374585</v>
       </c>
       <c r="T44" t="n">
-        <v>217.783151700692</v>
+        <v>217.7835428919996</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7543064926221</v>
+        <v>255.7543136417494</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25958,19 +25958,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>92.99917660853818</v>
+        <v>92.99922442254206</v>
       </c>
       <c r="H45" t="n">
-        <v>51.74077740098654</v>
+        <v>51.74123918360299</v>
       </c>
       <c r="I45" t="n">
-        <v>12.24540854883441</v>
+        <v>12.24705477659964</v>
       </c>
       <c r="J45" t="n">
-        <v>9.835185998134863</v>
+        <v>9.839703372948977</v>
       </c>
       <c r="K45" t="n">
-        <v>3.981455943866639</v>
+        <v>3.989176856940833</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25988,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>8.187704076657049</v>
+        <v>8.19380749231045</v>
       </c>
       <c r="R45" t="n">
-        <v>16.59135208004222</v>
+        <v>16.59432074249376</v>
       </c>
       <c r="S45" t="n">
-        <v>78.3924377437292</v>
+        <v>78.39332586788025</v>
       </c>
       <c r="T45" t="n">
-        <v>140.001404757162</v>
+        <v>140.0015974811513</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9130103395574</v>
+        <v>182.9130134852156</v>
       </c>
       <c r="V45" t="n">
         <v>202.9234074721264</v>
@@ -26037,49 +26037,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.4987780690097</v>
+        <v>164.4988181546643</v>
       </c>
       <c r="H46" t="n">
-        <v>141.5081398339535</v>
+        <v>141.5084962318651</v>
       </c>
       <c r="I46" t="n">
-        <v>95.89527006322407</v>
+        <v>95.89647554818475</v>
       </c>
       <c r="J46" t="n">
-        <v>13.87628484707558</v>
+        <v>13.87911890286131</v>
       </c>
       <c r="K46" t="n">
-        <v>9.855123640234183</v>
+        <v>9.859780864477683</v>
       </c>
       <c r="L46" t="n">
-        <v>7.702385333317634</v>
+        <v>7.708344976923126</v>
       </c>
       <c r="M46" t="n">
-        <v>7.586266198249906</v>
+        <v>7.592549806828204</v>
       </c>
       <c r="N46" t="n">
-        <v>6.11613633033911</v>
+        <v>6.12227052874997</v>
       </c>
       <c r="O46" t="n">
-        <v>8.983460966937351</v>
+        <v>8.989126892018565</v>
       </c>
       <c r="P46" t="n">
-        <v>10.81576169638987</v>
+        <v>10.82060987411565</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.61252925040833</v>
+        <v>16.61588587736505</v>
       </c>
       <c r="R46" t="n">
-        <v>42.26871705461914</v>
+        <v>42.27051945141948</v>
       </c>
       <c r="S46" t="n">
-        <v>166.7672673841848</v>
+        <v>166.7679659678213</v>
       </c>
       <c r="T46" t="n">
-        <v>240.4973878267295</v>
+        <v>240.4975591017995</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3773882725333</v>
+        <v>277.3773904590235</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>47213.27763988465</v>
+        <v>47198.33473802202</v>
       </c>
     </row>
   </sheetData>
@@ -26325,19 +26325,19 @@
         <v>7866.389123003671</v>
       </c>
       <c r="F2" t="n">
-        <v>7866.389123003671</v>
+        <v>7866.38912300367</v>
       </c>
       <c r="G2" t="n">
-        <v>7866.389123003671</v>
+        <v>7866.38912300367</v>
       </c>
       <c r="H2" t="n">
         <v>7866.38912300367</v>
       </c>
       <c r="I2" t="n">
-        <v>7866.38912300367</v>
+        <v>7866.389123003672</v>
       </c>
       <c r="J2" t="n">
-        <v>7866.38912300367</v>
+        <v>7866.389123003671</v>
       </c>
       <c r="K2" t="n">
         <v>7866.389123003671</v>
@@ -26346,16 +26346,16 @@
         <v>7866.389123003671</v>
       </c>
       <c r="M2" t="n">
-        <v>7866.389123003671</v>
+        <v>7866.389123003672</v>
       </c>
       <c r="N2" t="n">
         <v>7866.389123003671</v>
       </c>
       <c r="O2" t="n">
-        <v>7866.389123003672</v>
+        <v>7866.38912300367</v>
       </c>
       <c r="P2" t="n">
-        <v>7868.879606647444</v>
+        <v>7866.389123003671</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>14.79530028705073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26511,7 +26511,7 @@
         <v>1155.497722819562</v>
       </c>
       <c r="P5" t="n">
-        <v>1155.982321943114</v>
+        <v>1155.497722819562</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-35083.70667002791</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-35083.70667002791</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-35083.70667002791</v>
       </c>
       <c r="E6" t="n">
-        <v>-35873.0690129537</v>
+        <v>-37250.51179175157</v>
       </c>
       <c r="F6" t="n">
-        <v>6710.891400184109</v>
+        <v>5333.448621386236</v>
       </c>
       <c r="G6" t="n">
-        <v>6710.891400184109</v>
+        <v>5333.448621386236</v>
       </c>
       <c r="H6" t="n">
-        <v>6710.891400184108</v>
+        <v>5333.448621386236</v>
       </c>
       <c r="I6" t="n">
-        <v>6710.891400184108</v>
+        <v>5333.448621386238</v>
       </c>
       <c r="J6" t="n">
-        <v>6710.891400184108</v>
+        <v>5333.448621386238</v>
       </c>
       <c r="K6" t="n">
-        <v>6710.891400184109</v>
+        <v>5333.448621386238</v>
       </c>
       <c r="L6" t="n">
-        <v>6710.891400184109</v>
+        <v>5333.448621386238</v>
       </c>
       <c r="M6" t="n">
-        <v>6710.891400184109</v>
+        <v>5333.448621386238</v>
       </c>
       <c r="N6" t="n">
-        <v>6710.891400184109</v>
+        <v>5333.448621386238</v>
       </c>
       <c r="O6" t="n">
-        <v>6710.891400184109</v>
+        <v>5333.448621386236</v>
       </c>
       <c r="P6" t="n">
-        <v>6698.101984417279</v>
+        <v>5333.448621386238</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>53.00448269814503</v>
       </c>
       <c r="P3" t="n">
-        <v>53.02671201573919</v>
+        <v>53.00448269814503</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02222931759416014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -32016,7 +32016,7 @@
         <v>35.90214687118425</v>
       </c>
       <c r="P14" t="n">
-        <v>30.64165172903166</v>
+        <v>30.64165172903167</v>
       </c>
       <c r="Q14" t="n">
         <v>23.01060434560526</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09558185404583529</v>
+        <v>0.09558185404583527</v>
       </c>
       <c r="H16" t="n">
         <v>0.8498095750620634</v>
@@ -32180,7 +32180,7 @@
         <v>8.003676887419898</v>
       </c>
       <c r="R16" t="n">
-        <v>4.297707728279101</v>
+        <v>4.297707728279102</v>
       </c>
       <c r="S16" t="n">
         <v>1.665731038235147</v>
@@ -33201,7 +33201,7 @@
         <v>35.90214687118425</v>
       </c>
       <c r="P29" t="n">
-        <v>30.64165172903166</v>
+        <v>30.64165172903167</v>
       </c>
       <c r="Q29" t="n">
         <v>23.01060434560526</v>
@@ -33332,7 +33332,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09558185404583529</v>
+        <v>0.09558185404583527</v>
       </c>
       <c r="H31" t="n">
         <v>0.8498095750620634</v>
@@ -33365,7 +33365,7 @@
         <v>8.003676887419898</v>
       </c>
       <c r="R31" t="n">
-        <v>4.297707728279101</v>
+        <v>4.297707728279102</v>
       </c>
       <c r="S31" t="n">
         <v>1.665731038235147</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2131727116210619</v>
+        <v>0.2130833475302311</v>
       </c>
       <c r="H44" t="n">
-        <v>2.183155032889201</v>
+        <v>2.18223983289398</v>
       </c>
       <c r="I44" t="n">
-        <v>8.218340964770999</v>
+        <v>8.214895755659242</v>
       </c>
       <c r="J44" t="n">
-        <v>18.09276743294812</v>
+        <v>18.08518276744397</v>
       </c>
       <c r="K44" t="n">
-        <v>27.11636831586767</v>
+        <v>27.10500086839865</v>
       </c>
       <c r="L44" t="n">
-        <v>33.64025268914076</v>
+        <v>33.62615036537697</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>37.41557134701772</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>35.91720371514322</v>
+        <v>35.90214687118425</v>
       </c>
       <c r="P44" t="n">
-        <v>30.65450239699825</v>
+        <v>30.64165172903167</v>
       </c>
       <c r="Q44" t="n">
-        <v>23.02025466206896</v>
+        <v>23.01060434560526</v>
       </c>
       <c r="R44" t="n">
-        <v>13.39071034636654</v>
+        <v>13.38509682929589</v>
       </c>
       <c r="S44" t="n">
-        <v>4.857673166064953</v>
+        <v>4.855636781845146</v>
       </c>
       <c r="T44" t="n">
-        <v>0.9331635451211989</v>
+        <v>0.9327723538135871</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01705381692968495</v>
+        <v>0.01704666780241848</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1140574560338541</v>
+        <v>0.1140096420299723</v>
       </c>
       <c r="H45" t="n">
-        <v>1.101554904326959</v>
+        <v>1.101093121710522</v>
       </c>
       <c r="I45" t="n">
-        <v>3.926978201165591</v>
+        <v>3.925331973400363</v>
       </c>
       <c r="J45" t="n">
-        <v>10.77592833519847</v>
+        <v>10.77141096038436</v>
       </c>
       <c r="K45" t="n">
-        <v>18.4177778894667</v>
+        <v>18.4100569763925</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -34468,19 +34468,19 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>14.55933421232145</v>
+        <v>14.55323079666805</v>
       </c>
       <c r="R45" t="n">
-        <v>7.081567314101927</v>
+        <v>7.078598651650389</v>
       </c>
       <c r="S45" t="n">
-        <v>2.118567220628824</v>
+        <v>2.117679096477774</v>
       </c>
       <c r="T45" t="n">
-        <v>0.4597315881364556</v>
+        <v>0.4595388641471251</v>
       </c>
       <c r="U45" t="n">
-        <v>0.007503780002227248</v>
+        <v>0.00750063434407713</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.09562193970051328</v>
+        <v>0.09558185404583527</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8501659729736551</v>
+        <v>0.8498095750620634</v>
       </c>
       <c r="I46" t="n">
-        <v>2.875612513902709</v>
+        <v>2.874407028942029</v>
       </c>
       <c r="J46" t="n">
-        <v>6.760471136826289</v>
+        <v>6.757637081040554</v>
       </c>
       <c r="K46" t="n">
-        <v>11.10953081247781</v>
+        <v>11.10487358823431</v>
       </c>
       <c r="L46" t="n">
-        <v>14.21637456238359</v>
+        <v>14.2104149187781</v>
       </c>
       <c r="M46" t="n">
-        <v>14.98917369323591</v>
+        <v>14.98289008465761</v>
       </c>
       <c r="N46" t="n">
-        <v>14.63276464526128</v>
+        <v>14.62663044685042</v>
       </c>
       <c r="O46" t="n">
-        <v>13.5157265314871</v>
+        <v>13.51006060640589</v>
       </c>
       <c r="P46" t="n">
-        <v>11.56503896159662</v>
+        <v>11.56019078387084</v>
       </c>
       <c r="Q46" t="n">
-        <v>8.007033514376618</v>
+        <v>8.003676887419898</v>
       </c>
       <c r="R46" t="n">
-        <v>4.299510125079442</v>
+        <v>4.297707728279102</v>
       </c>
       <c r="S46" t="n">
-        <v>1.666429621871672</v>
+        <v>1.665731038235147</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4085664696294657</v>
+        <v>0.4083951945594779</v>
       </c>
       <c r="U46" t="n">
-        <v>0.005215742165482549</v>
+        <v>0.005213555675227385</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
